--- a/Data Exploration/Datasets/Population 18-64 years.xlsx
+++ b/Data Exploration/Datasets/Population 18-64 years.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Xingrui_ACS5_EMPLY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\A\Xingrui_ACS5_EMPLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278AFC0A-58AE-4A7B-AD6B-E1F39A41F427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5869DEB5-1417-42D0-AD5D-55C4CB7CAC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="512" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6624" yWindow="3432" windowWidth="11400" windowHeight="9072" tabRatio="512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="131">
   <si>
     <t>County</t>
   </si>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" activeCellId="1" sqref="F2 H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8887,7 +8887,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C100"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11005,8 +11005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1221DCE5-491A-4A6B-8D58-FF7881E1393E}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11050,7 +11050,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <f>C2/D2*100</f>
+        <f t="shared" ref="B2:B33" si="0">C2/D2*100</f>
         <v>7.4425969912905776</v>
       </c>
       <c r="C2">
@@ -11081,7 +11081,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="1">
-        <f>C3/D3*100</f>
+        <f t="shared" si="0"/>
         <v>7.9937304075235112</v>
       </c>
       <c r="C3">
@@ -11091,7 +11091,7 @@
         <v>638</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E66" si="0">F3/G3*100</f>
+        <f t="shared" ref="E3:E66" si="1">F3/G3*100</f>
         <v>10.439164866810655</v>
       </c>
       <c r="F3">
@@ -11112,7 +11112,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1">
-        <f>C4/D4*100</f>
+        <f t="shared" si="0"/>
         <v>6.8950749464668091</v>
       </c>
       <c r="C4">
@@ -11122,7 +11122,7 @@
         <v>2335</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.216194812908336</v>
       </c>
       <c r="F4">
@@ -11143,7 +11143,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1">
-        <f>C5/D5*100</f>
+        <f t="shared" si="0"/>
         <v>5.8937198067632846</v>
       </c>
       <c r="C5">
@@ -11153,7 +11153,7 @@
         <v>2070</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.076005961251862</v>
       </c>
       <c r="F5">
@@ -11174,7 +11174,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1">
-        <f>C6/D6*100</f>
+        <f t="shared" si="0"/>
         <v>4.8780487804878048</v>
       </c>
       <c r="C6">
@@ -11184,7 +11184,7 @@
         <v>861</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.485981308411214</v>
       </c>
       <c r="F6">
@@ -11205,7 +11205,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1">
-        <f>C7/D7*100</f>
+        <f t="shared" si="0"/>
         <v>6.1736770691994565</v>
       </c>
       <c r="C7">
@@ -11215,7 +11215,7 @@
         <v>4422</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5801936535327386</v>
       </c>
       <c r="F7">
@@ -11236,7 +11236,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="1">
-        <f>C8/D8*100</f>
+        <f t="shared" si="0"/>
         <v>6.2816142511546076</v>
       </c>
       <c r="C8">
@@ -11246,7 +11246,7 @@
         <v>36376</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.461400359066429</v>
       </c>
       <c r="F8">
@@ -11267,7 +11267,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="1">
-        <f>C9/D9*100</f>
+        <f t="shared" si="0"/>
         <v>8.1235697940503435</v>
       </c>
       <c r="C9">
@@ -11277,7 +11277,7 @@
         <v>5244</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.655341638354095</v>
       </c>
       <c r="F9">
@@ -11298,7 +11298,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="1">
-        <f>C10/D10*100</f>
+        <f t="shared" si="0"/>
         <v>5.5494505494505493</v>
       </c>
       <c r="C10">
@@ -11308,7 +11308,7 @@
         <v>5460</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9497206703910628</v>
       </c>
       <c r="F10">
@@ -11329,7 +11329,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1">
-        <f>C11/D11*100</f>
+        <f t="shared" si="0"/>
         <v>6.3987308302485459</v>
       </c>
       <c r="C11">
@@ -11339,7 +11339,7 @@
         <v>3782</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.008008135248506</v>
       </c>
       <c r="F11">
@@ -11360,7 +11360,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="1">
-        <f>C12/D12*100</f>
+        <f t="shared" si="0"/>
         <v>4.1327489041953669</v>
       </c>
       <c r="C12">
@@ -11370,7 +11370,7 @@
         <v>4791</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2093831450912251</v>
       </c>
       <c r="F12">
@@ -11391,7 +11391,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="1">
-        <f>C13/D13*100</f>
+        <f t="shared" si="0"/>
         <v>8.9100704517198501</v>
       </c>
       <c r="C13">
@@ -11401,7 +11401,7 @@
         <v>2413</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.132078885471323</v>
       </c>
       <c r="F13">
@@ -11422,7 +11422,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1">
-        <f>C14/D14*100</f>
+        <f t="shared" si="0"/>
         <v>3.3244680851063828</v>
       </c>
       <c r="C14">
@@ -11432,7 +11432,7 @@
         <v>1504</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.14757048590282</v>
       </c>
       <c r="F14">
@@ -11453,7 +11453,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="1">
-        <f>C15/D15*100</f>
+        <f t="shared" si="0"/>
         <v>4.9575458778416879</v>
       </c>
       <c r="C15">
@@ -11463,7 +11463,7 @@
         <v>3651</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.201150176447523</v>
       </c>
       <c r="F15">
@@ -11484,7 +11484,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="1">
-        <f>C16/D16*100</f>
+        <f t="shared" si="0"/>
         <v>9.4078319006685778</v>
       </c>
       <c r="C16">
@@ -11494,7 +11494,7 @@
         <v>2094</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.798403193612774</v>
       </c>
       <c r="F16">
@@ -11515,7 +11515,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="1">
-        <f>C17/D17*100</f>
+        <f t="shared" si="0"/>
         <v>4.4266830617891175</v>
       </c>
       <c r="C17">
@@ -11525,7 +11525,7 @@
         <v>3253</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.010692328254478</v>
       </c>
       <c r="F17">
@@ -11546,7 +11546,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1">
-        <f>C18/D18*100</f>
+        <f t="shared" si="0"/>
         <v>6.4252195884971721</v>
       </c>
       <c r="C18">
@@ -11556,7 +11556,7 @@
         <v>8311</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.994079190822745</v>
       </c>
       <c r="F18">
@@ -11577,7 +11577,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="1">
-        <f>C19/D19*100</f>
+        <f t="shared" si="0"/>
         <v>4.0090344438170531</v>
       </c>
       <c r="C19">
@@ -11587,7 +11587,7 @@
         <v>1771</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.727611940298507</v>
       </c>
       <c r="F19">
@@ -11608,7 +11608,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1">
-        <f>C20/D20*100</f>
+        <f t="shared" si="0"/>
         <v>6.970260223048327</v>
       </c>
       <c r="C20">
@@ -11618,7 +11618,7 @@
         <v>2152</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.833406209007434</v>
       </c>
       <c r="F20">
@@ -11639,7 +11639,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="1">
-        <f>C21/D21*100</f>
+        <f t="shared" si="0"/>
         <v>9.0909090909090917</v>
       </c>
       <c r="C21">
@@ -11649,7 +11649,7 @@
         <v>1595</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.905863367401828</v>
       </c>
       <c r="F21">
@@ -11670,7 +11670,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="1">
-        <f>C22/D22*100</f>
+        <f t="shared" si="0"/>
         <v>9.8467557874144109</v>
       </c>
       <c r="C22">
@@ -11680,7 +11680,7 @@
         <v>3067</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.855708068295948</v>
       </c>
       <c r="F22">
@@ -11701,7 +11701,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="1">
-        <f>C23/D23*100</f>
+        <f t="shared" si="0"/>
         <v>4.4863013698630141</v>
       </c>
       <c r="C23">
@@ -11711,7 +11711,7 @@
         <v>2920</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.66063482646099</v>
       </c>
       <c r="F23">
@@ -11732,7 +11732,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="1">
-        <f>C24/D24*100</f>
+        <f t="shared" si="0"/>
         <v>8.8771929824561404</v>
       </c>
       <c r="C24">
@@ -11742,7 +11742,7 @@
         <v>8550</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.748353383049372</v>
       </c>
       <c r="F24">
@@ -11763,7 +11763,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="1">
-        <f>C25/D25*100</f>
+        <f t="shared" si="0"/>
         <v>6.8321454902924561</v>
       </c>
       <c r="C25">
@@ -11773,7 +11773,7 @@
         <v>4069</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.575465196416264</v>
       </c>
       <c r="F25">
@@ -11794,7 +11794,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="1">
-        <f>C26/D26*100</f>
+        <f t="shared" si="0"/>
         <v>3.2523651240092053</v>
       </c>
       <c r="C26">
@@ -11804,7 +11804,7 @@
         <v>19555</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0383494313310857</v>
       </c>
       <c r="F26">
@@ -11825,7 +11825,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="1">
-        <f>C27/D27*100</f>
+        <f t="shared" si="0"/>
         <v>6.2573789846517123</v>
       </c>
       <c r="C27">
@@ -11835,7 +11835,7 @@
         <v>1694</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0048939641109307</v>
       </c>
       <c r="F27">
@@ -11856,7 +11856,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="1">
-        <f>C28/D28*100</f>
+        <f t="shared" si="0"/>
         <v>7.8264969354078273</v>
       </c>
       <c r="C28">
@@ -11866,7 +11866,7 @@
         <v>2121</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.983713355048861</v>
       </c>
       <c r="F28">
@@ -11887,7 +11887,7 @@
         <v>47</v>
       </c>
       <c r="B29" s="1">
-        <f>C29/D29*100</f>
+        <f t="shared" si="0"/>
         <v>6.2237762237762233</v>
       </c>
       <c r="C29">
@@ -11897,7 +11897,7 @@
         <v>2860</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9860099096473336</v>
       </c>
       <c r="F29">
@@ -11918,7 +11918,7 @@
         <v>48</v>
       </c>
       <c r="B30" s="1">
-        <f>C30/D30*100</f>
+        <f t="shared" si="0"/>
         <v>10.076775431861803</v>
       </c>
       <c r="C30">
@@ -11928,7 +11928,7 @@
         <v>7294</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.071167636314435</v>
       </c>
       <c r="F30">
@@ -11949,7 +11949,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="1">
-        <f>C31/D31*100</f>
+        <f t="shared" si="0"/>
         <v>4.520990312163617</v>
       </c>
       <c r="C31">
@@ -11959,7 +11959,7 @@
         <v>2787</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.328335832083956</v>
       </c>
       <c r="F31">
@@ -11980,7 +11980,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="1">
-        <f>C32/D32*100</f>
+        <f t="shared" si="0"/>
         <v>6.6893319856657172</v>
       </c>
       <c r="C32">
@@ -11990,7 +11990,7 @@
         <v>21766</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.210007047216349</v>
       </c>
       <c r="F32">
@@ -12011,7 +12011,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="1">
-        <f>C33/D33*100</f>
+        <f t="shared" si="0"/>
         <v>10.714285714285714</v>
       </c>
       <c r="C33">
@@ -12021,7 +12021,7 @@
         <v>1848</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.182461103253182</v>
       </c>
       <c r="F33">
@@ -12042,7 +12042,7 @@
         <v>52</v>
       </c>
       <c r="B34" s="1">
-        <f>C34/D34*100</f>
+        <f t="shared" ref="B34:B65" si="2">C34/D34*100</f>
         <v>5.926892950391645</v>
       </c>
       <c r="C34">
@@ -12052,7 +12052,7 @@
         <v>3830</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.535836177474401</v>
       </c>
       <c r="F34">
@@ -12073,7 +12073,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="1">
-        <f>C35/D35*100</f>
+        <f t="shared" si="2"/>
         <v>11.123110151187905</v>
       </c>
       <c r="C35">
@@ -12083,7 +12083,7 @@
         <v>2778</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.218649517684888</v>
       </c>
       <c r="F35">
@@ -12104,7 +12104,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="1">
-        <f>C36/D36*100</f>
+        <f t="shared" si="2"/>
         <v>3.5000000000000004</v>
       </c>
       <c r="C36">
@@ -12114,7 +12114,7 @@
         <v>1800</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5220058682315276</v>
       </c>
       <c r="F36">
@@ -12135,7 +12135,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="1">
-        <f>C37/D37*100</f>
+        <f t="shared" si="2"/>
         <v>5.5746140651801026</v>
       </c>
       <c r="C37">
@@ -12145,7 +12145,7 @@
         <v>1166</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.433934486566065</v>
       </c>
       <c r="F37">
@@ -12166,7 +12166,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="1">
-        <f>C38/D38*100</f>
+        <f t="shared" si="2"/>
         <v>9.4924192485168088</v>
       </c>
       <c r="C38">
@@ -12176,7 +12176,7 @@
         <v>1517</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.22668240850059</v>
       </c>
       <c r="F38">
@@ -12197,7 +12197,7 @@
         <v>57</v>
       </c>
       <c r="B39" s="1">
-        <f>C39/D39*100</f>
+        <f t="shared" si="2"/>
         <v>6.4090909090909083</v>
       </c>
       <c r="C39">
@@ -12207,7 +12207,7 @@
         <v>2200</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9187795444778679</v>
       </c>
       <c r="F39">
@@ -12228,7 +12228,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="1">
-        <f>C40/D40*100</f>
+        <f t="shared" si="2"/>
         <v>2.1804966686856453</v>
       </c>
       <c r="C40">
@@ -12238,7 +12238,7 @@
         <v>1651</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.750596089651884</v>
       </c>
       <c r="F40">
@@ -12259,7 +12259,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="1">
-        <f>C41/D41*100</f>
+        <f t="shared" si="2"/>
         <v>4.1955350269438032</v>
       </c>
       <c r="C41">
@@ -12269,7 +12269,7 @@
         <v>2598</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.200585903842839</v>
       </c>
       <c r="F41">
@@ -12290,7 +12290,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="1">
-        <f>C42/D42*100</f>
+        <f t="shared" si="2"/>
         <v>5.7908847184986598</v>
       </c>
       <c r="C42">
@@ -12300,7 +12300,7 @@
         <v>1865</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.79941930800871</v>
       </c>
       <c r="F42">
@@ -12321,7 +12321,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="1">
-        <f>C43/D43*100</f>
+        <f t="shared" si="2"/>
         <v>6.9622331691297212</v>
       </c>
       <c r="C43">
@@ -12331,7 +12331,7 @@
         <v>3045</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.40863531225906</v>
       </c>
       <c r="F43">
@@ -12352,7 +12352,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="1">
-        <f>C44/D44*100</f>
+        <f t="shared" si="2"/>
         <v>6.6075745366639804</v>
       </c>
       <c r="C44">
@@ -12362,7 +12362,7 @@
         <v>2482</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.170592433975731</v>
       </c>
       <c r="F44">
@@ -12383,7 +12383,7 @@
         <v>63</v>
       </c>
       <c r="B45" s="1">
-        <f>C45/D45*100</f>
+        <f t="shared" si="2"/>
         <v>4.1466498103666245</v>
       </c>
       <c r="C45">
@@ -12393,7 +12393,7 @@
         <v>3955</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.346847496753718</v>
       </c>
       <c r="F45">
@@ -12414,7 +12414,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="1">
-        <f>C46/D46*100</f>
+        <f t="shared" si="2"/>
         <v>5.5040197897340759</v>
       </c>
       <c r="C46">
@@ -12424,7 +12424,7 @@
         <v>1617</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6423723812334021</v>
       </c>
       <c r="F46">
@@ -12445,7 +12445,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="1">
-        <f>C47/D47*100</f>
+        <f t="shared" si="2"/>
         <v>6.7743940335612178</v>
       </c>
       <c r="C47">
@@ -12455,7 +12455,7 @@
         <v>1609</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.31089217296114</v>
       </c>
       <c r="F47">
@@ -12476,7 +12476,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="1">
-        <f>C48/D48*100</f>
+        <f t="shared" si="2"/>
         <v>9.1062394603709951</v>
       </c>
       <c r="C48">
@@ -12486,7 +12486,7 @@
         <v>1186</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5617529880478092</v>
       </c>
       <c r="F48">
@@ -12507,7 +12507,7 @@
         <v>67</v>
       </c>
       <c r="B49" s="1">
-        <f>C49/D49*100</f>
+        <f t="shared" si="2"/>
         <v>6.7443502824858754</v>
       </c>
       <c r="C49">
@@ -12517,7 +12517,7 @@
         <v>2832</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2003704847175065</v>
       </c>
       <c r="F49">
@@ -12538,7 +12538,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="1">
-        <f>C50/D50*100</f>
+        <f t="shared" si="2"/>
         <v>8.7625814091178214</v>
       </c>
       <c r="C50">
@@ -12548,7 +12548,7 @@
         <v>3378</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4623458409866181</v>
       </c>
       <c r="F50">
@@ -12569,7 +12569,7 @@
         <v>69</v>
       </c>
       <c r="B51" s="1">
-        <f>C51/D51*100</f>
+        <f t="shared" si="2"/>
         <v>5.1215805471124618</v>
       </c>
       <c r="C51">
@@ -12579,7 +12579,7 @@
         <v>6580</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.057299164987043</v>
       </c>
       <c r="F51">
@@ -12600,7 +12600,7 @@
         <v>70</v>
       </c>
       <c r="B52" s="1">
-        <f>C52/D52*100</f>
+        <f t="shared" si="2"/>
         <v>7.4244751664106508</v>
       </c>
       <c r="C52">
@@ -12610,7 +12610,7 @@
         <v>3906</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.032155316244502</v>
       </c>
       <c r="F52">
@@ -12631,7 +12631,7 @@
         <v>71</v>
       </c>
       <c r="B53" s="1">
-        <f>C53/D53*100</f>
+        <f t="shared" si="2"/>
         <v>4.7459499263622975</v>
       </c>
       <c r="C53">
@@ -12641,7 +12641,7 @@
         <v>54320</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2299250198969549</v>
       </c>
       <c r="F53">
@@ -12662,7 +12662,7 @@
         <v>72</v>
       </c>
       <c r="B54" s="1">
-        <f>C54/D54*100</f>
+        <f t="shared" si="2"/>
         <v>9.8694199817795329</v>
       </c>
       <c r="C54">
@@ -12672,7 +12672,7 @@
         <v>3293</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1475282210977031</v>
       </c>
       <c r="F54">
@@ -12693,7 +12693,7 @@
         <v>73</v>
       </c>
       <c r="B55" s="1">
-        <f>C55/D55*100</f>
+        <f t="shared" si="2"/>
         <v>7.7610273590173087</v>
       </c>
       <c r="C55">
@@ -12703,7 +12703,7 @@
         <v>1791</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.549738219895287</v>
       </c>
       <c r="F55">
@@ -12724,7 +12724,7 @@
         <v>74</v>
       </c>
       <c r="B56" s="1">
-        <f>C56/D56*100</f>
+        <f t="shared" si="2"/>
         <v>7.4019787467936968</v>
       </c>
       <c r="C56">
@@ -12734,7 +12734,7 @@
         <v>2729</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.235023041474655</v>
       </c>
       <c r="F56">
@@ -12755,7 +12755,7 @@
         <v>75</v>
       </c>
       <c r="B57" s="1">
-        <f>C57/D57*100</f>
+        <f t="shared" si="2"/>
         <v>5.9894978667541841</v>
       </c>
       <c r="C57">
@@ -12765,7 +12765,7 @@
         <v>6094</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.029041776673395</v>
       </c>
       <c r="F57">
@@ -12786,7 +12786,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="1">
-        <f>C58/D58*100</f>
+        <f t="shared" si="2"/>
         <v>6.8513290990355209</v>
       </c>
       <c r="C58">
@@ -12796,7 +12796,7 @@
         <v>51012</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5398064606610262</v>
       </c>
       <c r="F58">
@@ -12817,7 +12817,7 @@
         <v>77</v>
       </c>
       <c r="B59" s="1">
-        <f>C59/D59*100</f>
+        <f t="shared" si="2"/>
         <v>4.349796103307658</v>
       </c>
       <c r="C59">
@@ -12827,7 +12827,7 @@
         <v>2207</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1822408182240824</v>
       </c>
       <c r="F59">
@@ -12848,7 +12848,7 @@
         <v>78</v>
       </c>
       <c r="B60" s="1">
-        <f>C60/D60*100</f>
+        <f t="shared" si="2"/>
         <v>7.4274139095205944</v>
       </c>
       <c r="C60">
@@ -12858,7 +12858,7 @@
         <v>1481</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.364195632113194</v>
       </c>
       <c r="F60">
@@ -12879,7 +12879,7 @@
         <v>79</v>
       </c>
       <c r="B61" s="1">
-        <f>C61/D61*100</f>
+        <f t="shared" si="2"/>
         <v>3.74384236453202</v>
       </c>
       <c r="C61">
@@ -12889,7 +12889,7 @@
         <v>2030</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.781544256120528</v>
       </c>
       <c r="F61">
@@ -12910,7 +12910,7 @@
         <v>80</v>
       </c>
       <c r="B62" s="1">
-        <f>C62/D62*100</f>
+        <f t="shared" si="2"/>
         <v>3.887055372203887</v>
       </c>
       <c r="C62">
@@ -12920,7 +12920,7 @@
         <v>2727</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7432718475960076</v>
       </c>
       <c r="F62">
@@ -12941,7 +12941,7 @@
         <v>81</v>
       </c>
       <c r="B63" s="1">
-        <f>C63/D63*100</f>
+        <f t="shared" si="2"/>
         <v>7.4797423644296703</v>
       </c>
       <c r="C63">
@@ -12951,7 +12951,7 @@
         <v>4813</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.518645731108929</v>
       </c>
       <c r="F63">
@@ -12972,7 +12972,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="1">
-        <f>C64/D64*100</f>
+        <f t="shared" si="2"/>
         <v>7.143883857984763</v>
       </c>
       <c r="C64">
@@ -12982,7 +12982,7 @@
         <v>6957</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.843377325488948</v>
       </c>
       <c r="F64">
@@ -13003,7 +13003,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="1">
-        <f>C65/D65*100</f>
+        <f t="shared" si="2"/>
         <v>6.3797848386289715</v>
       </c>
       <c r="C65">
@@ -13013,7 +13013,7 @@
         <v>7994</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.38775227130869</v>
       </c>
       <c r="F65">
@@ -13034,7 +13034,7 @@
         <v>84</v>
       </c>
       <c r="B66" s="1">
-        <f>C66/D66*100</f>
+        <f t="shared" ref="B66:B97" si="3">C66/D66*100</f>
         <v>7.4255405956752343</v>
       </c>
       <c r="C66">
@@ -13044,7 +13044,7 @@
         <v>2451</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.867279894875164</v>
       </c>
       <c r="F66">
@@ -13065,7 +13065,7 @@
         <v>85</v>
       </c>
       <c r="B67" s="1">
-        <f>C67/D67*100</f>
+        <f t="shared" si="3"/>
         <v>5.2603892688058913</v>
       </c>
       <c r="C67">
@@ -13075,7 +13075,7 @@
         <v>1901</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E100" si="1">F67/G67*100</f>
+        <f t="shared" ref="E67:E100" si="4">F67/G67*100</f>
         <v>10.57518700025793</v>
       </c>
       <c r="F67">
@@ -13096,7 +13096,7 @@
         <v>86</v>
       </c>
       <c r="B68" s="1">
-        <f>C68/D68*100</f>
+        <f t="shared" si="3"/>
         <v>9.9086437104708374</v>
       </c>
       <c r="C68">
@@ -13106,7 +13106,7 @@
         <v>1423</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.976887519260401</v>
       </c>
       <c r="F68">
@@ -13127,7 +13127,7 @@
         <v>87</v>
       </c>
       <c r="B69" s="1">
-        <f>C69/D69*100</f>
+        <f t="shared" si="3"/>
         <v>7.9059829059829054</v>
       </c>
       <c r="C69">
@@ -13137,7 +13137,7 @@
         <v>1404</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.308749580958768</v>
       </c>
       <c r="F69">
@@ -13158,7 +13158,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="1">
-        <f>C70/D70*100</f>
+        <f t="shared" si="3"/>
         <v>8.4905660377358494</v>
       </c>
       <c r="C70">
@@ -13168,7 +13168,7 @@
         <v>1696</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.169102296450939</v>
       </c>
       <c r="F70">
@@ -13189,7 +13189,7 @@
         <v>89</v>
       </c>
       <c r="B71" s="1">
-        <f>C71/D71*100</f>
+        <f t="shared" si="3"/>
         <v>5.7048508312457304</v>
       </c>
       <c r="C71">
@@ -13199,7 +13199,7 @@
         <v>8782</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.320685128461585</v>
       </c>
       <c r="F71">
@@ -13220,7 +13220,7 @@
         <v>90</v>
       </c>
       <c r="B72" s="1">
-        <f>C72/D72*100</f>
+        <f t="shared" si="3"/>
         <v>10.374084072502892</v>
       </c>
       <c r="C72">
@@ -13230,7 +13230,7 @@
         <v>2593</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.246031746031745</v>
       </c>
       <c r="F72">
@@ -13251,7 +13251,7 @@
         <v>91</v>
       </c>
       <c r="B73" s="1">
-        <f>C73/D73*100</f>
+        <f t="shared" si="3"/>
         <v>3.2528856243441764</v>
       </c>
       <c r="C73">
@@ -13261,7 +13261,7 @@
         <v>953</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.912894961571306</v>
       </c>
       <c r="F73">
@@ -13282,7 +13282,7 @@
         <v>92</v>
       </c>
       <c r="B74" s="1">
-        <f>C74/D74*100</f>
+        <f t="shared" si="3"/>
         <v>6.2301587301587302</v>
       </c>
       <c r="C74">
@@ -13292,7 +13292,7 @@
         <v>2520</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.708969980226497</v>
       </c>
       <c r="F74">
@@ -13313,7 +13313,7 @@
         <v>93</v>
       </c>
       <c r="B75" s="1">
-        <f>C75/D75*100</f>
+        <f t="shared" si="3"/>
         <v>7.4800735744941758</v>
       </c>
       <c r="C75">
@@ -13323,7 +13323,7 @@
         <v>1631</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.417558886509635</v>
       </c>
       <c r="F75">
@@ -13344,7 +13344,7 @@
         <v>94</v>
       </c>
       <c r="B76" s="1">
-        <f>C76/D76*100</f>
+        <f t="shared" si="3"/>
         <v>5.2749217702279836</v>
       </c>
       <c r="C76">
@@ -13354,7 +13354,7 @@
         <v>4474</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.238978162340338</v>
       </c>
       <c r="F76">
@@ -13375,7 +13375,7 @@
         <v>95</v>
       </c>
       <c r="B77" s="1">
-        <f>C77/D77*100</f>
+        <f t="shared" si="3"/>
         <v>5.4964539007092199</v>
       </c>
       <c r="C77">
@@ -13385,7 +13385,7 @@
         <v>1128</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.369607462106488</v>
       </c>
       <c r="F77">
@@ -13406,7 +13406,7 @@
         <v>96</v>
       </c>
       <c r="B78" s="1">
-        <f>C78/D78*100</f>
+        <f t="shared" si="3"/>
         <v>7.5094342881322271</v>
       </c>
       <c r="C78">
@@ -13416,7 +13416,7 @@
         <v>115801</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.31443666217268</v>
       </c>
       <c r="F78">
@@ -13437,7 +13437,7 @@
         <v>97</v>
       </c>
       <c r="B79" s="1">
-        <f>C79/D79*100</f>
+        <f t="shared" si="3"/>
         <v>5.8798713283763115</v>
       </c>
       <c r="C79">
@@ -13447,7 +13447,7 @@
         <v>18963</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.710771982782715</v>
       </c>
       <c r="F79">
@@ -13468,7 +13468,7 @@
         <v>98</v>
       </c>
       <c r="B80" s="1">
-        <f>C80/D80*100</f>
+        <f t="shared" si="3"/>
         <v>8.0519480519480524</v>
       </c>
       <c r="C80">
@@ -13478,7 +13478,7 @@
         <v>4620</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.6895578551269992</v>
       </c>
       <c r="F80">
@@ -13499,7 +13499,7 @@
         <v>99</v>
       </c>
       <c r="B81" s="1">
-        <f>C81/D81*100</f>
+        <f t="shared" si="3"/>
         <v>7.5965130759651309</v>
       </c>
       <c r="C81">
@@ -13509,7 +13509,7 @@
         <v>803</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.387755102040817</v>
       </c>
       <c r="F81">
@@ -13530,7 +13530,7 @@
         <v>100</v>
       </c>
       <c r="B82" s="1">
-        <f>C82/D82*100</f>
+        <f t="shared" si="3"/>
         <v>2.8107432854465957</v>
       </c>
       <c r="C82">
@@ -13540,7 +13540,7 @@
         <v>1601</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0087623220153343</v>
       </c>
       <c r="F82">
@@ -13561,7 +13561,7 @@
         <v>101</v>
       </c>
       <c r="B83" s="1">
-        <f>C83/D83*100</f>
+        <f t="shared" si="3"/>
         <v>6.1227835305046305</v>
       </c>
       <c r="C83">
@@ -13571,7 +13571,7 @@
         <v>36601</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.564419024683925</v>
       </c>
       <c r="F83">
@@ -13592,7 +13592,7 @@
         <v>102</v>
       </c>
       <c r="B84" s="1">
-        <f>C84/D84*100</f>
+        <f t="shared" si="3"/>
         <v>8.3636363636363633</v>
       </c>
       <c r="C84">
@@ -13602,7 +13602,7 @@
         <v>1925</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.5695970695970693</v>
       </c>
       <c r="F84">
@@ -13623,7 +13623,7 @@
         <v>103</v>
       </c>
       <c r="B85" s="1">
-        <f>C85/D85*100</f>
+        <f t="shared" si="3"/>
         <v>4.0109497738633664</v>
       </c>
       <c r="C85">
@@ -13633,7 +13633,7 @@
         <v>8402</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.5187314863216583</v>
       </c>
       <c r="F85">
@@ -13654,7 +13654,7 @@
         <v>104</v>
       </c>
       <c r="B86" s="1">
-        <f>C86/D86*100</f>
+        <f t="shared" si="3"/>
         <v>5.2926817819086516</v>
       </c>
       <c r="C86">
@@ -13664,7 +13664,7 @@
         <v>42606</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.3808523409363751</v>
       </c>
       <c r="F86">
@@ -13685,7 +13685,7 @@
         <v>105</v>
       </c>
       <c r="B87" s="1">
-        <f>C87/D87*100</f>
+        <f t="shared" si="3"/>
         <v>6.6838876331934127</v>
       </c>
       <c r="C87">
@@ -13695,7 +13695,7 @@
         <v>3097</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.695652173913043</v>
       </c>
       <c r="F87">
@@ -13716,7 +13716,7 @@
         <v>106</v>
       </c>
       <c r="B88" s="1">
-        <f>C88/D88*100</f>
+        <f t="shared" si="3"/>
         <v>7.8971533516988064</v>
       </c>
       <c r="C88">
@@ -13726,7 +13726,7 @@
         <v>1089</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.337240757439135</v>
       </c>
       <c r="F88">
@@ -13747,7 +13747,7 @@
         <v>107</v>
       </c>
       <c r="B89" s="1">
-        <f>C89/D89*100</f>
+        <f t="shared" si="3"/>
         <v>6.1417322834645667</v>
       </c>
       <c r="C89">
@@ -13757,7 +13757,7 @@
         <v>2540</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19.249665029030819</v>
       </c>
       <c r="F89">
@@ -13778,7 +13778,7 @@
         <v>108</v>
       </c>
       <c r="B90" s="1">
-        <f>C90/D90*100</f>
+        <f t="shared" si="3"/>
         <v>6.6427289048473961</v>
       </c>
       <c r="C90">
@@ -13788,7 +13788,7 @@
         <v>1114</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.435020021842011</v>
       </c>
       <c r="F90">
@@ -13809,7 +13809,7 @@
         <v>109</v>
       </c>
       <c r="B91" s="1">
-        <f>C91/D91*100</f>
+        <f t="shared" si="3"/>
         <v>7.0901033973412115</v>
       </c>
       <c r="C91">
@@ -13819,7 +13819,7 @@
         <v>7447</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.117408602957735</v>
       </c>
       <c r="F91">
@@ -13840,7 +13840,7 @@
         <v>110</v>
       </c>
       <c r="B92" s="1">
-        <f>C92/D92*100</f>
+        <f t="shared" si="3"/>
         <v>6.3407181054239885</v>
       </c>
       <c r="C92">
@@ -13850,7 +13850,7 @@
         <v>10472</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.9026467903863704</v>
       </c>
       <c r="F92">
@@ -13871,7 +13871,7 @@
         <v>111</v>
       </c>
       <c r="B93" s="1">
-        <f>C93/D93*100</f>
+        <f t="shared" si="3"/>
         <v>5.3280710409472123</v>
       </c>
       <c r="C93">
@@ -13881,7 +13881,7 @@
         <v>4054</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.073582629674307</v>
       </c>
       <c r="F93">
@@ -13902,7 +13902,7 @@
         <v>112</v>
       </c>
       <c r="B94" s="1">
-        <f>C94/D94*100</f>
+        <f t="shared" si="3"/>
         <v>5.1282051282051277</v>
       </c>
       <c r="C94">
@@ -13912,7 +13912,7 @@
         <v>1131</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.948467347845401</v>
       </c>
       <c r="F94">
@@ -13933,7 +13933,7 @@
         <v>113</v>
       </c>
       <c r="B95" s="1">
-        <f>C95/D95*100</f>
+        <f t="shared" si="3"/>
         <v>9.5152140278494066</v>
       </c>
       <c r="C95">
@@ -13943,7 +13943,7 @@
         <v>7756</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.081744724248843</v>
       </c>
       <c r="F95">
@@ -13964,7 +13964,7 @@
         <v>114</v>
       </c>
       <c r="B96" s="1">
-        <f>C96/D96*100</f>
+        <f t="shared" si="3"/>
         <v>12.351543942992874</v>
       </c>
       <c r="C96">
@@ -13974,7 +13974,7 @@
         <v>2105</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.207805907172997</v>
       </c>
       <c r="F96">
@@ -13995,7 +13995,7 @@
         <v>115</v>
       </c>
       <c r="B97" s="1">
-        <f>C97/D97*100</f>
+        <f t="shared" si="3"/>
         <v>6.3774490203918424</v>
       </c>
       <c r="C97">
@@ -14005,7 +14005,7 @@
         <v>5002</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.445276737411568</v>
       </c>
       <c r="F97">
@@ -14026,7 +14026,7 @@
         <v>116</v>
       </c>
       <c r="B98" s="1">
-        <f>C98/D98*100</f>
+        <f t="shared" ref="B98:B129" si="5">C98/D98*100</f>
         <v>6.2394384505394518</v>
       </c>
       <c r="C98">
@@ -14036,7 +14036,7 @@
         <v>23079</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.179178201161593</v>
       </c>
       <c r="F98">
@@ -14057,7 +14057,7 @@
         <v>117</v>
       </c>
       <c r="B99" s="1">
-        <f>C99/D99*100</f>
+        <f t="shared" si="5"/>
         <v>7.5867052023121389</v>
       </c>
       <c r="C99">
@@ -14067,7 +14067,7 @@
         <v>1384</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.590754588715161</v>
       </c>
       <c r="F99">
@@ -14088,7 +14088,7 @@
         <v>118</v>
       </c>
       <c r="B100" s="1">
-        <f>C100/D100*100</f>
+        <f t="shared" si="5"/>
         <v>8.8783022953659607</v>
       </c>
       <c r="C100">
@@ -14098,7 +14098,7 @@
         <v>2309</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.087912087912088</v>
       </c>
       <c r="F100">
@@ -14121,15 +14121,2818 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4F78C6-BFEE-42FD-B64A-C29973ED149C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752DC82B-BD1E-4B5B-80D0-43E541E3D72A}">
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>559</v>
+      </c>
+      <c r="C2" s="1">
+        <f>D2/B2*100</f>
+        <v>16.815742397137747</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1">
+        <f>F2/B2*100</f>
+        <v>83.18425760286226</v>
+      </c>
+      <c r="F2">
+        <v>465</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>196</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C66" si="0">D3/B3*100</f>
+        <v>26.020408163265309</v>
+      </c>
+      <c r="D3">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E66" si="1">F3/B3*100</f>
+        <v>73.979591836734699</v>
+      </c>
+      <c r="F3">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>576</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>27.951388888888889</v>
+      </c>
+      <c r="D4">
+        <v>161</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>72.048611111111114</v>
+      </c>
+      <c r="F4">
+        <v>415</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>1018</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>11.984282907662083</v>
+      </c>
+      <c r="D5">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>88.015717092337923</v>
+      </c>
+      <c r="F5">
+        <v>896</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>352</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>11.931818181818182</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>88.068181818181827</v>
+      </c>
+      <c r="F6">
+        <v>310</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>1168</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>23.373287671232877</v>
+      </c>
+      <c r="D7">
+        <v>273</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>76.626712328767127</v>
+      </c>
+      <c r="F7">
+        <v>895</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>8729</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>26.177110780158092</v>
+      </c>
+      <c r="D8">
+        <v>2285</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>73.822889219841898</v>
+      </c>
+      <c r="F8">
+        <v>6444</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>1661</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>25.647200481637565</v>
+      </c>
+      <c r="D9">
+        <v>426</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>74.352799518362431</v>
+      </c>
+      <c r="F9">
+        <v>1235</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>1104</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>27.445652173913043</v>
+      </c>
+      <c r="D10">
+        <v>303</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>72.554347826086953</v>
+      </c>
+      <c r="F10">
+        <v>801</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>1108</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>21.841155234657037</v>
+      </c>
+      <c r="D11">
+        <v>242</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>78.158844765342963</v>
+      </c>
+      <c r="F11">
+        <v>866</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>834</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>23.741007194244602</v>
+      </c>
+      <c r="D12">
+        <v>198</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>76.258992805755398</v>
+      </c>
+      <c r="F12">
+        <v>636</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>775</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>27.741935483870968</v>
+      </c>
+      <c r="D13">
+        <v>215</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>72.258064516129025</v>
+      </c>
+      <c r="F13">
+        <v>560</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>455</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>10.989010989010989</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>89.010989010989007</v>
+      </c>
+      <c r="F14">
+        <v>405</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>1038</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>17.437379576107901</v>
+      </c>
+      <c r="D15">
+        <v>181</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>82.562620423892099</v>
+      </c>
+      <c r="F15">
+        <v>857</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>738</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>26.693766937669377</v>
+      </c>
+      <c r="D16">
+        <v>197</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>73.306233062330634</v>
+      </c>
+      <c r="F16">
+        <v>541</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>893</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>16.12541993281075</v>
+      </c>
+      <c r="D17">
+        <v>144</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>83.874580067189257</v>
+      </c>
+      <c r="F17">
+        <v>749</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>2803</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>19.051016767748841</v>
+      </c>
+      <c r="D18">
+        <v>534</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>80.948983232251166</v>
+      </c>
+      <c r="F18">
+        <v>2269</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>531</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>13.370998116760829</v>
+      </c>
+      <c r="D19">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>86.62900188323917</v>
+      </c>
+      <c r="F19">
+        <v>460</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>737</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>20.352781546811396</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>79.6472184531886</v>
+      </c>
+      <c r="F20">
+        <v>587</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>1071</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>13.53874883286648</v>
+      </c>
+      <c r="D21">
+        <v>145</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>86.461251167133526</v>
+      </c>
+      <c r="F21">
+        <v>926</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>1070</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>28.22429906542056</v>
+      </c>
+      <c r="D22">
+        <v>302</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>71.775700934579433</v>
+      </c>
+      <c r="F22">
+        <v>768</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>1052</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>12.452471482889733</v>
+      </c>
+      <c r="D23">
+        <v>131</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>87.547528517110266</v>
+      </c>
+      <c r="F23">
+        <v>921</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>3101</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>24.475975491776847</v>
+      </c>
+      <c r="D24">
+        <v>759</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>75.52402450822315</v>
+      </c>
+      <c r="F24">
+        <v>2342</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>1182</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>23.519458544839257</v>
+      </c>
+      <c r="D25">
+        <v>278</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>76.480541455160747</v>
+      </c>
+      <c r="F25">
+        <v>904</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>3099</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>20.522749273959342</v>
+      </c>
+      <c r="D26">
+        <v>636</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>79.477250726040666</v>
+      </c>
+      <c r="F26">
+        <v>2463</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>382</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>27.748691099476442</v>
+      </c>
+      <c r="D27">
+        <v>106</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>72.251308900523554</v>
+      </c>
+      <c r="F27">
+        <v>276</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>534</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>31.086142322097377</v>
+      </c>
+      <c r="D28">
+        <v>166</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>68.913857677902627</v>
+      </c>
+      <c r="F28">
+        <v>368</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>726</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>24.517906336088156</v>
+      </c>
+      <c r="D29">
+        <v>178</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>75.48209366391184</v>
+      </c>
+      <c r="F29">
+        <v>548</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>2815</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>26.110124333925398</v>
+      </c>
+      <c r="D30">
+        <v>735</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>73.889875666074602</v>
+      </c>
+      <c r="F30">
+        <v>2080</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31">
+        <v>1015</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>12.413793103448276</v>
+      </c>
+      <c r="D31">
+        <v>126</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>87.586206896551715</v>
+      </c>
+      <c r="F31">
+        <v>889</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>5078</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>28.672705789680975</v>
+      </c>
+      <c r="D32">
+        <v>1456</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>71.327294210319025</v>
+      </c>
+      <c r="F32">
+        <v>3622</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>664</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>29.819277108433734</v>
+      </c>
+      <c r="D33">
+        <v>198</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>70.180722891566262</v>
+      </c>
+      <c r="F33">
+        <v>466</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>1365</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>16.630036630036628</v>
+      </c>
+      <c r="D34">
+        <v>227</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>83.369963369963372</v>
+      </c>
+      <c r="F34">
+        <v>1138</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>1031</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>29.970902036857421</v>
+      </c>
+      <c r="D35">
+        <v>309</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>70.02909796314259</v>
+      </c>
+      <c r="F35">
+        <v>722</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>345</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>18.260869565217391</v>
+      </c>
+      <c r="D36">
+        <v>63</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>81.739130434782609</v>
+      </c>
+      <c r="F36">
+        <v>282</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>430</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>15.11627906976744</v>
+      </c>
+      <c r="D37">
+        <v>65</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>84.883720930232556</v>
+      </c>
+      <c r="F37">
+        <v>365</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>626</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>23.003194888178914</v>
+      </c>
+      <c r="D38">
+        <v>144</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>76.996805111821089</v>
+      </c>
+      <c r="F38">
+        <v>482</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>463</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>30.45356371490281</v>
+      </c>
+      <c r="D39">
+        <v>141</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>69.546436285097187</v>
+      </c>
+      <c r="F39">
+        <v>322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40">
+        <v>403</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9330024813895772</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>91.066997518610421</v>
+      </c>
+      <c r="F40">
+        <v>367</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>817</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>13.341493268053856</v>
+      </c>
+      <c r="D41">
+        <v>109</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>86.658506731946147</v>
+      </c>
+      <c r="F41">
+        <v>708</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>637</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>16.954474097331239</v>
+      </c>
+      <c r="D42">
+        <v>108</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>83.045525902668757</v>
+      </c>
+      <c r="F42">
+        <v>529</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43">
+        <v>887</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>23.900789177001126</v>
+      </c>
+      <c r="D43">
+        <v>212</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>76.09921082299887</v>
+      </c>
+      <c r="F43">
+        <v>675</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44">
+        <v>790</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>20.759493670886076</v>
+      </c>
+      <c r="D44">
+        <v>164</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="1"/>
+        <v>79.240506329113927</v>
+      </c>
+      <c r="F44">
+        <v>626</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>1297</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>12.644564379336931</v>
+      </c>
+      <c r="D45">
+        <v>164</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="1"/>
+        <v>87.355435620663073</v>
+      </c>
+      <c r="F45">
+        <v>1133</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>348</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>25.574712643678161</v>
+      </c>
+      <c r="D46">
+        <v>89</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="1"/>
+        <v>74.425287356321832</v>
+      </c>
+      <c r="F46">
+        <v>259</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <v>705</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>15.460992907801419</v>
+      </c>
+      <c r="D47">
+        <v>109</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="1"/>
+        <v>84.539007092198588</v>
+      </c>
+      <c r="F47">
+        <v>596</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48">
+        <v>348</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>31.03448275862069</v>
+      </c>
+      <c r="D48">
+        <v>108</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="1"/>
+        <v>68.965517241379317</v>
+      </c>
+      <c r="F48">
+        <v>240</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>787</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>24.269377382465056</v>
+      </c>
+      <c r="D49">
+        <v>191</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="1"/>
+        <v>75.730622617534934</v>
+      </c>
+      <c r="F49">
+        <v>596</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>941</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>31.455897980871413</v>
+      </c>
+      <c r="D50">
+        <v>296</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="1"/>
+        <v>68.544102019128587</v>
+      </c>
+      <c r="F50">
+        <v>645</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>2012</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>16.749502982107355</v>
+      </c>
+      <c r="D51">
+        <v>337</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="1"/>
+        <v>83.250497017892641</v>
+      </c>
+      <c r="F51">
+        <v>1675</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>1347</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>21.529324424647363</v>
+      </c>
+      <c r="D52">
+        <v>290</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="1"/>
+        <v>78.470675575352629</v>
+      </c>
+      <c r="F52">
+        <v>1057</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53">
+        <v>6030</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>42.752902155887227</v>
+      </c>
+      <c r="D53">
+        <v>2578</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="1"/>
+        <v>57.247097844112773</v>
+      </c>
+      <c r="F53">
+        <v>3452</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54">
+        <v>1030</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>31.55339805825243</v>
+      </c>
+      <c r="D54">
+        <v>325</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="1"/>
+        <v>68.446601941747574</v>
+      </c>
+      <c r="F54">
+        <v>705</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55">
+        <v>733</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>18.963165075034105</v>
+      </c>
+      <c r="D55">
+        <v>139</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="1"/>
+        <v>81.036834924965888</v>
+      </c>
+      <c r="F55">
+        <v>594</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>1137</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>17.766051011433596</v>
+      </c>
+      <c r="D56">
+        <v>202</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="1"/>
+        <v>82.233948988566411</v>
+      </c>
+      <c r="F56">
+        <v>935</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57">
+        <v>2558</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>14.268960125097733</v>
+      </c>
+      <c r="D57">
+        <v>365</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="1"/>
+        <v>85.731039874902265</v>
+      </c>
+      <c r="F57">
+        <v>2193</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58">
+        <v>10802</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>32.355119422329196</v>
+      </c>
+      <c r="D58">
+        <v>3495</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="1"/>
+        <v>67.64488057767079</v>
+      </c>
+      <c r="F58">
+        <v>7307</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59">
+        <v>448</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="D59">
+        <v>96</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="1"/>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="F59">
+        <v>352</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60">
+        <v>642</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>17.133956386292834</v>
+      </c>
+      <c r="D60">
+        <v>110</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="1"/>
+        <v>82.866043613707163</v>
+      </c>
+      <c r="F60">
+        <v>532</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61">
+        <v>534</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>14.232209737827715</v>
+      </c>
+      <c r="D61">
+        <v>76</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="1"/>
+        <v>85.767790262172284</v>
+      </c>
+      <c r="F61">
+        <v>458</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62">
+        <v>552</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>19.202898550724637</v>
+      </c>
+      <c r="D62">
+        <v>106</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="1"/>
+        <v>80.79710144927536</v>
+      </c>
+      <c r="F62">
+        <v>446</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63">
+        <v>1299</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>27.713625866050805</v>
+      </c>
+      <c r="D63">
+        <v>360</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="1"/>
+        <v>72.286374133949195</v>
+      </c>
+      <c r="F63">
+        <v>939</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64">
+        <v>2364</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>21.023688663282574</v>
+      </c>
+      <c r="D64">
+        <v>497</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="1"/>
+        <v>78.97631133671743</v>
+      </c>
+      <c r="F64">
+        <v>1867</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65">
+        <v>2152</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>23.698884758364315</v>
+      </c>
+      <c r="D65">
+        <v>510</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="1"/>
+        <v>76.301115241635685</v>
+      </c>
+      <c r="F65">
+        <v>1642</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66">
+        <v>1148</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>15.853658536585366</v>
+      </c>
+      <c r="D66">
+        <v>182</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="1"/>
+        <v>84.146341463414629</v>
+      </c>
+      <c r="F66">
+        <v>966</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67">
+        <v>510</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" ref="C67:C100" si="2">D67/B67*100</f>
+        <v>19.607843137254903</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" ref="E67:E100" si="3">F67/B67*100</f>
+        <v>80.392156862745097</v>
+      </c>
+      <c r="F67">
+        <v>410</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68">
+        <v>627</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="2"/>
+        <v>22.488038277511961</v>
+      </c>
+      <c r="D68">
+        <v>141</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="3"/>
+        <v>77.511961722488039</v>
+      </c>
+      <c r="F68">
+        <v>486</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69">
+        <v>508</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="2"/>
+        <v>21.8503937007874</v>
+      </c>
+      <c r="D69">
+        <v>111</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="3"/>
+        <v>78.149606299212607</v>
+      </c>
+      <c r="F69">
+        <v>397</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70">
+        <v>572</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="2"/>
+        <v>25.174825174825177</v>
+      </c>
+      <c r="D70">
+        <v>144</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="3"/>
+        <v>74.825174825174827</v>
+      </c>
+      <c r="F70">
+        <v>428</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71">
+        <v>2152</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="2"/>
+        <v>23.28066914498141</v>
+      </c>
+      <c r="D71">
+        <v>501</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="3"/>
+        <v>76.719330855018583</v>
+      </c>
+      <c r="F71">
+        <v>1651</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72">
+        <v>987</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="2"/>
+        <v>27.254305977710231</v>
+      </c>
+      <c r="D72">
+        <v>269</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="3"/>
+        <v>72.745694022289769</v>
+      </c>
+      <c r="F72">
+        <v>718</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73">
+        <v>310</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>31</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="F73">
+        <v>279</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74">
+        <v>864</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="2"/>
+        <v>18.171296296296298</v>
+      </c>
+      <c r="D74">
+        <v>157</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="3"/>
+        <v>81.828703703703709</v>
+      </c>
+      <c r="F74">
+        <v>707</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75">
+        <v>626</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="2"/>
+        <v>19.488817891373802</v>
+      </c>
+      <c r="D75">
+        <v>122</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="3"/>
+        <v>80.511182108626201</v>
+      </c>
+      <c r="F75">
+        <v>504</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76">
+        <v>1230</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="2"/>
+        <v>19.1869918699187</v>
+      </c>
+      <c r="D76">
+        <v>236</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="3"/>
+        <v>80.8130081300813</v>
+      </c>
+      <c r="F76">
+        <v>994</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77">
+        <v>406</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="2"/>
+        <v>15.270935960591133</v>
+      </c>
+      <c r="D77">
+        <v>62</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="3"/>
+        <v>84.729064039408868</v>
+      </c>
+      <c r="F77">
+        <v>344</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78">
+        <v>29341</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="2"/>
+        <v>29.637708326232914</v>
+      </c>
+      <c r="D78">
+        <v>8696</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="3"/>
+        <v>70.362291673767089</v>
+      </c>
+      <c r="F78">
+        <v>20645</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79">
+        <v>6736</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="2"/>
+        <v>16.552850356294538</v>
+      </c>
+      <c r="D79">
+        <v>1115</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="3"/>
+        <v>83.447149643705458</v>
+      </c>
+      <c r="F79">
+        <v>5621</v>
+      </c>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80">
+        <v>990</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="2"/>
+        <v>37.575757575757571</v>
+      </c>
+      <c r="D80">
+        <v>372</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="3"/>
+        <v>62.424242424242429</v>
+      </c>
+      <c r="F80">
+        <v>618</v>
+      </c>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81">
+        <v>222</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="2"/>
+        <v>27.477477477477478</v>
+      </c>
+      <c r="D81">
+        <v>61</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="3"/>
+        <v>72.522522522522522</v>
+      </c>
+      <c r="F81">
+        <v>161</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82">
+        <v>374</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="2"/>
+        <v>12.032085561497325</v>
+      </c>
+      <c r="D82">
+        <v>45</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="3"/>
+        <v>87.967914438502675</v>
+      </c>
+      <c r="F82">
+        <v>329</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83">
+        <v>9260</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="2"/>
+        <v>24.200863930885529</v>
+      </c>
+      <c r="D83">
+        <v>2241</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="3"/>
+        <v>75.799136069114468</v>
+      </c>
+      <c r="F83">
+        <v>7019</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84">
+        <v>579</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="2"/>
+        <v>27.806563039723663</v>
+      </c>
+      <c r="D84">
+        <v>161</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="3"/>
+        <v>72.19343696027633</v>
+      </c>
+      <c r="F84">
+        <v>418</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85">
+        <v>1200</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="2"/>
+        <v>28.083333333333332</v>
+      </c>
+      <c r="D85">
+        <v>337</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="3"/>
+        <v>71.916666666666657</v>
+      </c>
+      <c r="F85">
+        <v>863</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86">
+        <v>4489</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="2"/>
+        <v>50.233905101358879</v>
+      </c>
+      <c r="D86">
+        <v>2255</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="3"/>
+        <v>49.766094898641121</v>
+      </c>
+      <c r="F86">
+        <v>2234</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87">
+        <v>757</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="2"/>
+        <v>27.344782034346103</v>
+      </c>
+      <c r="D87">
+        <v>207</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="3"/>
+        <v>72.65521796565389</v>
+      </c>
+      <c r="F87">
+        <v>550</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88">
+        <v>404</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="2"/>
+        <v>21.287128712871286</v>
+      </c>
+      <c r="D88">
+        <v>86</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="3"/>
+        <v>78.712871287128721</v>
+      </c>
+      <c r="F88">
+        <v>318</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89">
+        <v>1018</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="2"/>
+        <v>15.324165029469548</v>
+      </c>
+      <c r="D89">
+        <v>156</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="3"/>
+        <v>84.675834970530445</v>
+      </c>
+      <c r="F89">
+        <v>862</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90">
+        <v>498</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="2"/>
+        <v>14.859437751004014</v>
+      </c>
+      <c r="D90">
+        <v>74</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="3"/>
+        <v>85.140562248995991</v>
+      </c>
+      <c r="F90">
+        <v>424</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91">
+        <v>2675</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="2"/>
+        <v>19.738317757009348</v>
+      </c>
+      <c r="D91">
+        <v>528</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="3"/>
+        <v>80.261682242990645</v>
+      </c>
+      <c r="F91">
+        <v>2147</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92">
+        <v>2617</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="2"/>
+        <v>25.372564004585403</v>
+      </c>
+      <c r="D92">
+        <v>664</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="3"/>
+        <v>74.627435995414587</v>
+      </c>
+      <c r="F92">
+        <v>1953</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93">
+        <v>1134</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="2"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="D93">
+        <v>216</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="3"/>
+        <v>80.952380952380949</v>
+      </c>
+      <c r="F93">
+        <v>918</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94">
+        <v>417</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="2"/>
+        <v>13.908872901678656</v>
+      </c>
+      <c r="D94">
+        <v>58</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="3"/>
+        <v>86.091127098321337</v>
+      </c>
+      <c r="F94">
+        <v>359</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95">
+        <v>2533</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="2"/>
+        <v>29.135412554283459</v>
+      </c>
+      <c r="D95">
+        <v>738</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="3"/>
+        <v>70.864587445716538</v>
+      </c>
+      <c r="F95">
+        <v>1795</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96">
+        <v>685</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="2"/>
+        <v>37.956204379562038</v>
+      </c>
+      <c r="D96">
+        <v>260</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="3"/>
+        <v>62.043795620437962</v>
+      </c>
+      <c r="F96">
+        <v>425</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97">
+        <v>1072</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="2"/>
+        <v>29.757462686567166</v>
+      </c>
+      <c r="D97">
+        <v>319</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="3"/>
+        <v>70.242537313432834</v>
+      </c>
+      <c r="F97">
+        <v>753</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98">
+        <v>6296</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="2"/>
+        <v>22.871664548919949</v>
+      </c>
+      <c r="D98">
+        <v>1440</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="3"/>
+        <v>77.128335451080048</v>
+      </c>
+      <c r="F98">
+        <v>4856</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99">
+        <v>446</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="2"/>
+        <v>23.542600896860989</v>
+      </c>
+      <c r="D99">
+        <v>105</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="3"/>
+        <v>76.457399103139011</v>
+      </c>
+      <c r="F99">
+        <v>341</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100">
+        <v>744</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="2"/>
+        <v>27.553763440860212</v>
+      </c>
+      <c r="D100">
+        <v>205</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="3"/>
+        <v>72.446236559139791</v>
+      </c>
+      <c r="F100">
+        <v>539</v>
+      </c>
+      <c r="G100" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Exploration/Datasets/Population 18-64 years.xlsx
+++ b/Data Exploration/Datasets/Population 18-64 years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\A\Xingrui_ACS5_EMPLY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bahanson\Documents\GitHub\DHR-Disabilities\Data Exploration\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5869DEB5-1417-42D0-AD5D-55C4CB7CAC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FECC36B-9535-4ECC-9BA0-2B6F261C2BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6624" yWindow="3432" windowWidth="11400" windowHeight="9072" tabRatio="512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28350" yWindow="-2970" windowWidth="27030" windowHeight="16425" tabRatio="512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -451,12 +450,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -471,9 +476,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,48 +779,56 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" customWidth="1"/>
-    <col min="6" max="24" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="2" customWidth="1"/>
+    <col min="15" max="24" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
@@ -823,7 +837,7 @@
       <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O1" t="s">
@@ -857,54 +871,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>I2+N2</f>
         <v>3954</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <f>D2/B2*100</f>
         <v>14.13758219524532</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>F2+K2</f>
         <v>559</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">(F2/B2)*100</f>
+        <f>(F2/B2)*100</f>
         <v>2.3773394031360646</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>94</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G33" si="1">(H2/B2)*100</f>
+        <f>(H2/B2)*100</f>
         <v>29.564997470915529</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>1169</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>1263</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J33" si="2">(K2/B2)*100</f>
+        <f>(K2/B2)*100</f>
         <v>11.760242792109256</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>465</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L33" si="3">(M2/B2)*100</f>
+        <f>(M2/B2)*100</f>
         <v>56.297420333839156</v>
       </c>
       <c r="M2">
         <v>2226</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>2691</v>
       </c>
       <c r="O2">
@@ -938,54 +952,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B66" si="4">I3+N3</f>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B66" si="0">I3+N3</f>
         <v>2027</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C66" si="5">D3/B3*100</f>
+      <c r="C3" s="2">
+        <f>D3/B3*100</f>
         <v>9.6694622594967932</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="6">F3+K3</f>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D66" si="1">F3+K3</f>
         <v>196</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>(F3/B3)*100</f>
         <v>2.5160335471139614</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>51</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>(H3/B3)*100</f>
         <v>28.959052787370499</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>587</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>638</v>
       </c>
       <c r="J3">
-        <f t="shared" si="2"/>
+        <f>(K3/B3)*100</f>
         <v>7.1534287123828326</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>145</v>
       </c>
       <c r="L3">
-        <f t="shared" si="3"/>
+        <f>(M3/B3)*100</f>
         <v>61.371484953132708</v>
       </c>
       <c r="M3">
         <v>1244</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>1389</v>
       </c>
       <c r="O3">
@@ -1019,54 +1033,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="4"/>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
         <v>7386</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="5"/>
+      <c r="C4" s="2">
+        <f>D4/B4*100</f>
         <v>7.7985377741673441</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="6"/>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
         <v>576</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>(F4/B4)*100</f>
         <v>2.1797996209044137</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>161</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f>(H4/B4)*100</f>
         <v>29.434064446249664</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>2174</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>2335</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f>(K4/B4)*100</f>
         <v>5.6187381532629299</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>415</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f>(M4/B4)*100</f>
         <v>62.767397779582993</v>
       </c>
       <c r="M4">
         <v>4636</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>5051</v>
       </c>
       <c r="O4">
@@ -1100,54 +1114,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="4"/>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
         <v>6767</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="5"/>
+      <c r="C5" s="2">
+        <f>D5/B5*100</f>
         <v>15.043593911629968</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="6"/>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
         <v>1018</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>(F5/B5)*100</f>
         <v>1.8028668538495642</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>122</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>(H5/B5)*100</f>
         <v>28.78675927294222</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>1948</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>2070</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f>(K5/B5)*100</f>
         <v>13.240727057780404</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>896</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f>(M5/B5)*100</f>
         <v>56.169646815427811</v>
       </c>
       <c r="M5">
         <v>3801</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>4697</v>
       </c>
       <c r="O5">
@@ -1181,54 +1195,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="4"/>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
         <v>3001</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="5"/>
+      <c r="C6" s="2">
+        <f>D6/B6*100</f>
         <v>11.729423525491503</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="6"/>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>(F6/B6)*100</f>
         <v>1.3995334888370543</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>42</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>(H6/B6)*100</f>
         <v>27.290903032322561</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>819</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>861</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f>(K6/B6)*100</f>
         <v>10.329890036654449</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>310</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f>(M6/B6)*100</f>
         <v>60.979673442185934</v>
       </c>
       <c r="M6">
         <v>1830</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>2140</v>
       </c>
       <c r="O6">
@@ -1262,54 +1276,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="4"/>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
         <v>14853</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="5"/>
+      <c r="C7" s="2">
+        <f>D7/B7*100</f>
         <v>7.8637312327475932</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="6"/>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
         <v>1168</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>(F7/B7)*100</f>
         <v>1.8380125227226822</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>273</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>(H7/B7)*100</f>
         <v>27.933750757422743</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>4149</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>4422</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f>(K7/B7)*100</f>
         <v>6.0257187100249112</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>895</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f>(M7/B7)*100</f>
         <v>64.202518009829674</v>
       </c>
       <c r="M7">
         <v>9536</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>10431</v>
       </c>
       <c r="O7">
@@ -1343,54 +1357,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="4"/>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
         <v>80936</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="5"/>
+      <c r="C8" s="2">
+        <f>D8/B8*100</f>
         <v>10.785064742512603</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="6"/>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
         <v>8729</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>(F8/B8)*100</f>
         <v>2.8232183453592965</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>2285</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>(H8/B8)*100</f>
         <v>42.120935059800338</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>34091</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>36376</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f>(K8/B8)*100</f>
         <v>7.9618463971533062</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>6444</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f>(M8/B8)*100</f>
         <v>47.094000197687066</v>
       </c>
       <c r="M8">
         <v>38116</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>44560</v>
       </c>
       <c r="O8">
@@ -1424,54 +1438,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="4"/>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
         <v>15840</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="5"/>
+      <c r="C9" s="2">
+        <f>D9/B9*100</f>
         <v>10.486111111111111</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="6"/>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
         <v>1661</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>(F9/B9)*100</f>
         <v>2.6893939393939394</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>426</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>(H9/B9)*100</f>
         <v>30.416666666666664</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>4818</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>5244</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f>(K9/B9)*100</f>
         <v>7.7967171717171713</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>1235</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f>(M9/B9)*100</f>
         <v>59.097222222222221</v>
       </c>
       <c r="M9">
         <v>9361</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>10596</v>
       </c>
       <c r="O9">
@@ -1505,54 +1519,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="4"/>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
         <v>14410</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="5"/>
+      <c r="C10" s="2">
+        <f>D10/B10*100</f>
         <v>7.6613462873004856</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="6"/>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
         <v>1104</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>(F10/B10)*100</f>
         <v>2.1027064538514924</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>303</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>(H10/B10)*100</f>
         <v>35.787647467036784</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>5157</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>5460</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f>(K10/B10)*100</f>
         <v>5.5586398334489937</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>801</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f>(M10/B10)*100</f>
         <v>56.551006245662741</v>
       </c>
       <c r="M10">
         <v>8149</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>8950</v>
       </c>
       <c r="O10">
@@ -1586,54 +1600,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="4"/>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
         <v>11649</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="5"/>
+      <c r="C11" s="2">
+        <f>D11/B11*100</f>
         <v>9.5115460554554048</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="6"/>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
         <v>1108</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>(F11/B11)*100</f>
         <v>2.0774315391879132</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>242</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f>(H11/B11)*100</f>
         <v>30.388874581509139</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>3540</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>3782</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f>(K11/B11)*100</f>
         <v>7.4341145162674911</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>866</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f>(M11/B11)*100</f>
         <v>60.099579363035446</v>
       </c>
       <c r="M11">
         <v>7001</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>7867</v>
       </c>
       <c r="O11">
@@ -1667,54 +1681,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="4"/>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
         <v>11697</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="5"/>
+      <c r="C12" s="2">
+        <f>D12/B12*100</f>
         <v>7.1300333418825339</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="6"/>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
         <v>834</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>(F12/B12)*100</f>
         <v>1.6927417286483715</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>198</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>(H12/B12)*100</f>
         <v>39.266478584252376</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>4593</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>4791</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f>(K12/B12)*100</f>
         <v>5.4372916132341622</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>636</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f>(M12/B12)*100</f>
         <v>53.603488073865094</v>
       </c>
       <c r="M12">
         <v>6270</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>6906</v>
       </c>
       <c r="O12">
@@ -1748,54 +1762,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="4"/>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
         <v>7940</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="5"/>
+      <c r="C13" s="2">
+        <f>D13/B13*100</f>
         <v>9.7607052896725435</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="6"/>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
         <v>775</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>(F13/B13)*100</f>
         <v>2.7078085642317382</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>215</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f>(H13/B13)*100</f>
         <v>27.68261964735516</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>2198</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>2413</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f>(K13/B13)*100</f>
         <v>7.0528967254408066</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>560</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f>(M13/B13)*100</f>
         <v>62.556675062972289</v>
       </c>
       <c r="M13">
         <v>4967</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>5527</v>
       </c>
       <c r="O13">
@@ -1829,54 +1843,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="4"/>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
         <v>4838</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="5"/>
+      <c r="C14" s="2">
+        <f>D14/B14*100</f>
         <v>9.4047126911947085</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="6"/>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>(F14/B14)*100</f>
         <v>1.0334849111202975</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>50</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f>(H14/B14)*100</f>
         <v>30.053741215378256</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>1454</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>1504</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f>(K14/B14)*100</f>
         <v>8.3712277800744115</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>405</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f>(M14/B14)*100</f>
         <v>60.541546093427037</v>
       </c>
       <c r="M14">
         <v>2929</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>3334</v>
       </c>
       <c r="O14">
@@ -1910,54 +1924,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="4"/>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
         <v>11302</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="5"/>
+      <c r="C15" s="2">
+        <f>D15/B15*100</f>
         <v>9.1842151831534249</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="6"/>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
         <v>1038</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>(F15/B15)*100</f>
         <v>1.6014864625729959</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>181</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f>(H15/B15)*100</f>
         <v>30.702530525570698</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>3470</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>3651</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f>(K15/B15)*100</f>
         <v>7.5827287205804286</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>857</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f>(M15/B15)*100</f>
         <v>60.113254291275872</v>
       </c>
       <c r="M15">
         <v>6794</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>7651</v>
       </c>
       <c r="O15">
@@ -1991,54 +2005,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="4"/>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
         <v>7104</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="5"/>
+      <c r="C16" s="2">
+        <f>D16/B16*100</f>
         <v>10.388513513513512</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="6"/>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
         <v>738</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>(F16/B16)*100</f>
         <v>2.7730855855855858</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>197</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f>(H16/B16)*100</f>
         <v>26.703265765765767</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>1897</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>2094</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f>(K16/B16)*100</f>
         <v>7.6154279279279287</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>541</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f>(M16/B16)*100</f>
         <v>62.90822072072072</v>
       </c>
       <c r="M16">
         <v>4469</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>5010</v>
       </c>
       <c r="O16">
@@ -2072,54 +2086,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="4"/>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
         <v>10735</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="5"/>
+      <c r="C17" s="2">
+        <f>D17/B17*100</f>
         <v>8.3185840707964598</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="6"/>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
         <v>893</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>(F17/B17)*100</f>
         <v>1.3414066138798324</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>144</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f>(H17/B17)*100</f>
         <v>28.961341406613876</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>3109</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>3253</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f>(K17/B17)*100</f>
         <v>6.9771774569166283</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>749</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f>(M17/B17)*100</f>
         <v>62.720074522589663</v>
       </c>
       <c r="M17">
         <v>6733</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="2">
         <v>7482</v>
       </c>
       <c r="O17">
@@ -2153,54 +2167,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="4"/>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
         <v>24525</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="5"/>
+      <c r="C18" s="2">
+        <f>D18/B18*100</f>
         <v>11.429153924566769</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="6"/>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
         <v>2803</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>(F18/B18)*100</f>
         <v>2.1773700305810397</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>534</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f>(H18/B18)*100</f>
         <v>31.710499490316003</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>7777</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>8311</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f>(K18/B18)*100</f>
         <v>9.2517838939857295</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>2269</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f>(M18/B18)*100</f>
         <v>56.860346585117227</v>
       </c>
       <c r="M18">
         <v>13945</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="2">
         <v>16214</v>
       </c>
       <c r="O18">
@@ -2234,54 +2248,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="4"/>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
         <v>6059</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="5"/>
+      <c r="C19" s="2">
+        <f>D19/B19*100</f>
         <v>8.7638224129394295</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="6"/>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
         <v>531</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>(F19/B19)*100</f>
         <v>1.1718105297903945</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>71</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f>(H19/B19)*100</f>
         <v>28.057435220333389</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>1700</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>1771</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f>(K19/B19)*100</f>
         <v>7.5920118831490342</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>460</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f>(M19/B19)*100</f>
         <v>63.178742366727178</v>
       </c>
       <c r="M19">
         <v>3828</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="2">
         <v>4288</v>
       </c>
       <c r="O19">
@@ -2315,54 +2329,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="4"/>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
         <v>6726</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="5"/>
+      <c r="C20" s="2">
+        <f>D20/B20*100</f>
         <v>10.95747844186738</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="6"/>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
         <v>737</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>(F20/B20)*100</f>
         <v>2.2301516503122212</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>150</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f>(H20/B20)*100</f>
         <v>29.76509069283378</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>2002</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>2152</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f>(K20/B20)*100</f>
         <v>8.7273267915551589</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>587</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f>(M20/B20)*100</f>
         <v>59.27743086529884</v>
       </c>
       <c r="M20">
         <v>3987</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="2">
         <v>4574</v>
       </c>
       <c r="O20">
@@ -2396,54 +2410,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="4"/>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
         <v>5313</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="5"/>
+      <c r="C21" s="2">
+        <f>D21/B21*100</f>
         <v>20.158102766798418</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="6"/>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
         <v>1071</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>(F21/B21)*100</f>
         <v>2.7291549030679465</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>145</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f>(H21/B21)*100</f>
         <v>27.291549030679462</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>1450</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>1595</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f>(K21/B21)*100</f>
         <v>17.428947863730475</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <v>926</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f>(M21/B21)*100</f>
         <v>52.550348202522116</v>
       </c>
       <c r="M21">
         <v>2792</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="2">
         <v>3718</v>
       </c>
       <c r="O21">
@@ -2477,54 +2491,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="4"/>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
         <v>9041</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="5"/>
+      <c r="C22" s="2">
+        <f>D22/B22*100</f>
         <v>11.834974007300078</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="6"/>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
         <v>1070</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>(F22/B22)*100</f>
         <v>3.3403384581351623</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>302</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f>(H22/B22)*100</f>
         <v>30.582900121667954</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>2765</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>3067</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f>(K22/B22)*100</f>
         <v>8.494635549164915</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>768</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f>(M22/B22)*100</f>
         <v>57.582125871031963</v>
       </c>
       <c r="M22">
         <v>5206</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="2">
         <v>5974</v>
       </c>
       <c r="O22">
@@ -2558,54 +2572,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="4"/>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
         <v>9662</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="5"/>
+      <c r="C23" s="2">
+        <f>D23/B23*100</f>
         <v>10.888014903746637</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="6"/>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
         <v>1052</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>(F23/B23)*100</f>
         <v>1.3558269509418341</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>131</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f>(H23/B23)*100</f>
         <v>28.865659283792176</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>2789</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>2920</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f>(K23/B23)*100</f>
         <v>9.5321879528048026</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>921</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f>(M23/B23)*100</f>
         <v>60.246325812461187</v>
       </c>
       <c r="M23">
         <v>5821</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="2">
         <v>6742</v>
       </c>
       <c r="O23">
@@ -2639,54 +2653,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="4"/>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
         <v>26921</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="5"/>
+      <c r="C24" s="2">
+        <f>D24/B24*100</f>
         <v>11.518888599977712</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="6"/>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
         <v>3101</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>(F24/B24)*100</f>
         <v>2.819360350655622</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>759</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f>(H24/B24)*100</f>
         <v>28.940232532223913</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>7791</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>8550</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f>(K24/B24)*100</f>
         <v>8.6995282493220909</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>2342</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f>(M24/B24)*100</f>
         <v>59.540878867798376</v>
       </c>
       <c r="M24">
         <v>16029</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="2">
         <v>18371</v>
       </c>
       <c r="O24">
@@ -2720,54 +2734,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="4"/>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
         <v>9873</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="5"/>
+      <c r="C25" s="2">
+        <f>D25/B25*100</f>
         <v>11.972044971133394</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="6"/>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
         <v>1182</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>(F25/B25)*100</f>
         <v>2.8157601539552313</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>278</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f>(H25/B25)*100</f>
         <v>38.397650156993826</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>3791</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>4069</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f>(K25/B25)*100</f>
         <v>9.1562848171781628</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>904</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f>(M25/B25)*100</f>
         <v>49.630304871872781</v>
       </c>
       <c r="M25">
         <v>4900</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="2">
         <v>5804</v>
       </c>
       <c r="O25">
@@ -2801,54 +2815,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="4"/>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
         <v>54549</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="5"/>
+      <c r="C26" s="2">
+        <f>D26/B26*100</f>
         <v>5.6811307265027775</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="6"/>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
         <v>3099</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>(F26/B26)*100</f>
         <v>1.1659242149260298</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>636</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f>(H26/B26)*100</f>
         <v>34.682578965700564</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>18919</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>19555</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f>(K26/B26)*100</f>
         <v>4.5152065115767481</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <v>2463</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f>(M26/B26)*100</f>
         <v>59.636290307796656</v>
       </c>
       <c r="M26">
         <v>32531</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="2">
         <v>34994</v>
       </c>
       <c r="O26">
@@ -2882,54 +2896,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="4"/>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
         <v>4759</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="5"/>
+      <c r="C27" s="2">
+        <f>D27/B27*100</f>
         <v>8.0268964068081523</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="6"/>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
         <v>382</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>(F27/B27)*100</f>
         <v>2.2273586888001682</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>106</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f>(H27/B27)*100</f>
         <v>33.368354696364783</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>1588</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>1694</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f>(K27/B27)*100</f>
         <v>5.7995377180079846</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="2">
         <v>276</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f>(M27/B27)*100</f>
         <v>58.604748896827061</v>
       </c>
       <c r="M27">
         <v>2789</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="2">
         <v>3065</v>
       </c>
       <c r="O27">
@@ -2963,54 +2977,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="4"/>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
         <v>4577</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="5"/>
+      <c r="C28" s="2">
+        <f>D28/B28*100</f>
         <v>11.667030806204938</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="6"/>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
         <v>534</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>(F28/B28)*100</f>
         <v>3.6268298011798121</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>166</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f>(H28/B28)*100</f>
         <v>42.713567839195981</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>1955</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>2121</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f>(K28/B28)*100</f>
         <v>8.0402010050251249</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="2">
         <v>368</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f>(M28/B28)*100</f>
         <v>45.619401354599084</v>
       </c>
       <c r="M28">
         <v>2088</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="2">
         <v>2456</v>
       </c>
       <c r="O28">
@@ -3044,54 +3058,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="4"/>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
         <v>9722</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="5"/>
+      <c r="C29" s="2">
+        <f>D29/B29*100</f>
         <v>7.4675992594116432</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="6"/>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
         <v>726</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>(F29/B29)*100</f>
         <v>1.8308989919769596</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>178</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f>(H29/B29)*100</f>
         <v>27.586916272371941</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>2682</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>2860</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f>(K29/B29)*100</f>
         <v>5.6367002674346844</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="2">
         <v>548</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
+        <f>(M29/B29)*100</f>
         <v>64.945484468216421</v>
       </c>
       <c r="M29">
         <v>6314</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="2">
         <v>6862</v>
       </c>
       <c r="O29">
@@ -3125,54 +3139,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="4"/>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
         <v>22076</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="5"/>
+      <c r="C30" s="2">
+        <f>D30/B30*100</f>
         <v>12.75140423989853</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="6"/>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
         <v>2815</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>(F30/B30)*100</f>
         <v>3.3294075013589421</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>735</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f>(H30/B30)*100</f>
         <v>29.710998369269799</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>6559</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>7294</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f>(K30/B30)*100</f>
         <v>9.4219967385395904</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <v>2080</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f>(M30/B30)*100</f>
         <v>57.537597390831671</v>
       </c>
       <c r="M30">
         <v>12702</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="2">
         <v>14782</v>
       </c>
       <c r="O30">
@@ -3206,54 +3220,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="4"/>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
         <v>9457</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="5"/>
+      <c r="C31" s="2">
+        <f>D31/B31*100</f>
         <v>10.73279052553664</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="6"/>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
         <v>1015</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>(F31/B31)*100</f>
         <v>1.3323464100666174</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>126</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f>(H31/B31)*100</f>
         <v>28.137887279264039</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>2661</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>2787</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f>(K31/B31)*100</f>
         <v>9.4004441154700213</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="2">
         <v>889</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
+        <f>(M31/B31)*100</f>
         <v>61.129322195199322</v>
       </c>
       <c r="M31">
         <v>5781</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="2">
         <v>6670</v>
       </c>
       <c r="O31">
@@ -3287,54 +3301,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="4"/>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
         <v>57241</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="5"/>
+      <c r="C32" s="2">
+        <f>D32/B32*100</f>
         <v>8.8712636047588269</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="6"/>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
         <v>5078</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>(F32/B32)*100</f>
         <v>2.5436313132195454</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>1456</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f>(H32/B32)*100</f>
         <v>35.481560419978685</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>20310</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>21766</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f>(K32/B32)*100</f>
         <v>6.3276322915392811</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <v>3622</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
+        <f>(M32/B32)*100</f>
         <v>55.647175975262485</v>
       </c>
       <c r="M32">
         <v>31853</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="2">
         <v>35475</v>
       </c>
       <c r="O32">
@@ -3368,54 +3382,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="4"/>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
         <v>5383</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="5"/>
+      <c r="C33" s="2">
+        <f>D33/B33*100</f>
         <v>12.335129110161621</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="6"/>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
         <v>664</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>(F33/B33)*100</f>
         <v>3.6782463310421698</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>198</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f>(H33/B33)*100</f>
         <v>30.65205275868475</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>1650</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>1848</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f>(K33/B33)*100</f>
         <v>8.6568827791194494</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="2">
         <v>466</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
+        <f>(M33/B33)*100</f>
         <v>57.01281813115363</v>
       </c>
       <c r="M33">
         <v>3069</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="2">
         <v>3535</v>
       </c>
       <c r="O33">
@@ -3449,54 +3463,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="4"/>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
         <v>11155</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="5"/>
+      <c r="C34" s="2">
+        <f>D34/B34*100</f>
         <v>12.236665172568355</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="6"/>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
         <v>1365</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="7">(F34/B34)*100</f>
+        <f>(F34/B34)*100</f>
         <v>2.0349619004930526</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>227</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G65" si="8">(H34/B34)*100</f>
+        <f>(H34/B34)*100</f>
         <v>32.299417301658451</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>3603</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>3830</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J65" si="9">(K34/B34)*100</f>
+        <f>(K34/B34)*100</f>
         <v>10.201703272075303</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>1138</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L65" si="10">(M34/B34)*100</f>
+        <f>(M34/B34)*100</f>
         <v>55.463917525773198</v>
       </c>
       <c r="M34">
         <v>6187</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="2">
         <v>7325</v>
       </c>
       <c r="O34">
@@ -3530,54 +3544,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="4"/>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
         <v>8687</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="5"/>
+      <c r="C35" s="2">
+        <f>D35/B35*100</f>
         <v>11.868308967422585</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="6"/>
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
         <v>1031</v>
       </c>
       <c r="E35">
-        <f t="shared" si="7"/>
+        <f>(F35/B35)*100</f>
         <v>3.5570392540577873</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>309</v>
       </c>
       <c r="G35">
-        <f t="shared" si="8"/>
+        <f>(H35/B35)*100</f>
         <v>28.421779670772416</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>2469</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>2778</v>
       </c>
       <c r="J35">
-        <f t="shared" si="9"/>
+        <f>(K35/B35)*100</f>
         <v>8.3112697133647977</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <v>722</v>
       </c>
       <c r="L35">
-        <f t="shared" si="10"/>
+        <f>(M35/B35)*100</f>
         <v>59.709911361804998</v>
       </c>
       <c r="M35">
         <v>5187</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="2">
         <v>5909</v>
       </c>
       <c r="O35">
@@ -3611,54 +3625,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="4"/>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
         <v>5549</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="5"/>
+      <c r="C36" s="2">
+        <f>D36/B36*100</f>
         <v>6.2173364570192824</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="6"/>
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
         <v>345</v>
       </c>
       <c r="E36">
-        <f t="shared" si="7"/>
+        <f>(F36/B36)*100</f>
         <v>1.1353397008469994</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>63</v>
       </c>
       <c r="G36">
-        <f t="shared" si="8"/>
+        <f>(H36/B36)*100</f>
         <v>31.302937466210128</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>1737</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>1800</v>
       </c>
       <c r="J36">
-        <f t="shared" si="9"/>
+        <f>(K36/B36)*100</f>
         <v>5.0819967561722832</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="2">
         <v>282</v>
       </c>
       <c r="L36">
-        <f t="shared" si="10"/>
+        <f>(M36/B36)*100</f>
         <v>62.479726076770589</v>
       </c>
       <c r="M36">
         <v>3467</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="2">
         <v>3749</v>
       </c>
       <c r="O36">
@@ -3692,54 +3706,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="4"/>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
         <v>3883</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="5"/>
+      <c r="C37" s="2">
+        <f>D37/B37*100</f>
         <v>11.073911923770281</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="6"/>
+      <c r="D37" s="2">
+        <f t="shared" si="1"/>
         <v>430</v>
       </c>
       <c r="E37">
-        <f t="shared" si="7"/>
+        <f>(F37/B37)*100</f>
         <v>1.6739634303373681</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>65</v>
       </c>
       <c r="G37">
-        <f t="shared" si="8"/>
+        <f>(H37/B37)*100</f>
         <v>28.354365181560649</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>1101</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>1166</v>
       </c>
       <c r="J37">
-        <f t="shared" si="9"/>
+        <f>(K37/B37)*100</f>
         <v>9.3999484934329125</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="2">
         <v>365</v>
       </c>
       <c r="L37">
-        <f t="shared" si="10"/>
+        <f>(M37/B37)*100</f>
         <v>60.571722894669065</v>
       </c>
       <c r="M37">
         <v>2352</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="2">
         <v>2717</v>
       </c>
       <c r="O37">
@@ -3773,54 +3787,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="4"/>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
         <v>4905</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="5"/>
+      <c r="C38" s="2">
+        <f>D38/B38*100</f>
         <v>12.762487257900101</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="6"/>
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
       <c r="E38">
-        <f t="shared" si="7"/>
+        <f>(F38/B38)*100</f>
         <v>2.9357798165137616</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>144</v>
       </c>
       <c r="G38">
-        <f t="shared" si="8"/>
+        <f>(H38/B38)*100</f>
         <v>27.991845056065241</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>1373</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>1517</v>
       </c>
       <c r="J38">
-        <f t="shared" si="9"/>
+        <f>(K38/B38)*100</f>
         <v>9.8267074413863398</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="2">
         <v>482</v>
       </c>
       <c r="L38">
-        <f t="shared" si="10"/>
+        <f>(M38/B38)*100</f>
         <v>59.245667686034651</v>
       </c>
       <c r="M38">
         <v>2906</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="2">
         <v>3388</v>
       </c>
       <c r="O38">
@@ -3854,54 +3868,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="4"/>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
         <v>6854</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="5"/>
+      <c r="C39" s="2">
+        <f>D39/B39*100</f>
         <v>6.7551794572512396</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="6"/>
+      <c r="D39" s="2">
+        <f t="shared" si="1"/>
         <v>463</v>
       </c>
       <c r="E39">
-        <f t="shared" si="7"/>
+        <f>(F39/B39)*100</f>
         <v>2.0571928800700321</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>141</v>
       </c>
       <c r="G39">
-        <f t="shared" si="8"/>
+        <f>(H39/B39)*100</f>
         <v>30.040852057192879</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>2059</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>2200</v>
       </c>
       <c r="J39">
-        <f t="shared" si="9"/>
+        <f>(K39/B39)*100</f>
         <v>4.6979865771812079</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="2">
         <v>322</v>
       </c>
       <c r="L39">
-        <f t="shared" si="10"/>
+        <f>(M39/B39)*100</f>
         <v>63.203968485555883</v>
       </c>
       <c r="M39">
         <v>4332</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="2">
         <v>4654</v>
       </c>
       <c r="O39">
@@ -3935,54 +3949,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="4"/>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
         <v>5845</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="5"/>
+      <c r="C40" s="2">
+        <f>D40/B40*100</f>
         <v>6.8947818648417449</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="6"/>
+      <c r="D40" s="2">
+        <f t="shared" si="1"/>
         <v>403</v>
       </c>
       <c r="E40">
-        <f t="shared" si="7"/>
+        <f>(F40/B40)*100</f>
         <v>0.61591103507271172</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>36</v>
       </c>
       <c r="G40">
-        <f t="shared" si="8"/>
+        <f>(H40/B40)*100</f>
         <v>27.630453378956371</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>1615</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>1651</v>
       </c>
       <c r="J40">
-        <f t="shared" si="9"/>
+        <f>(K40/B40)*100</f>
         <v>6.2788708297690325</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <v>367</v>
       </c>
       <c r="L40">
-        <f t="shared" si="10"/>
+        <f>(M40/B40)*100</f>
         <v>65.474764756201893</v>
       </c>
       <c r="M40">
         <v>3827</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="2">
         <v>4194</v>
       </c>
       <c r="O40">
@@ -4016,54 +4030,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="4"/>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
         <v>8401</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="5"/>
+      <c r="C41" s="2">
+        <f>D41/B41*100</f>
         <v>9.7250327341983098</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="6"/>
+      <c r="D41" s="2">
+        <f t="shared" si="1"/>
         <v>817</v>
       </c>
       <c r="E41">
-        <f t="shared" si="7"/>
+        <f>(F41/B41)*100</f>
         <v>1.2974645875491013</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>109</v>
       </c>
       <c r="G41">
-        <f t="shared" si="8"/>
+        <f>(H41/B41)*100</f>
         <v>29.627425306511128</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>2489</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>2598</v>
       </c>
       <c r="J41">
-        <f t="shared" si="9"/>
+        <f>(K41/B41)*100</f>
         <v>8.4275681466492092</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="2">
         <v>708</v>
       </c>
       <c r="L41">
-        <f t="shared" si="10"/>
+        <f>(M41/B41)*100</f>
         <v>60.647541959290564</v>
       </c>
       <c r="M41">
         <v>5095</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="2">
         <v>5803</v>
       </c>
       <c r="O41">
@@ -4097,54 +4111,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="4"/>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
         <v>5998</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="5"/>
+      <c r="C42" s="2">
+        <f>D42/B42*100</f>
         <v>10.620206735578526</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="6"/>
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
         <v>637</v>
       </c>
       <c r="E42">
-        <f t="shared" si="7"/>
+        <f>(F42/B42)*100</f>
         <v>1.800600200066689</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>108</v>
       </c>
       <c r="G42">
-        <f t="shared" si="8"/>
+        <f>(H42/B42)*100</f>
         <v>29.29309769923308</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>1757</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>1865</v>
       </c>
       <c r="J42">
-        <f t="shared" si="9"/>
+        <f>(K42/B42)*100</f>
         <v>8.8196065355118378</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="2">
         <v>529</v>
       </c>
       <c r="L42">
-        <f t="shared" si="10"/>
+        <f>(M42/B42)*100</f>
         <v>60.0866955651884</v>
       </c>
       <c r="M42">
         <v>3604</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="2">
         <v>4133</v>
       </c>
       <c r="O42">
@@ -4178,54 +4192,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="4"/>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
         <v>9530</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="5"/>
+      <c r="C43" s="2">
+        <f>D43/B43*100</f>
         <v>9.3074501573976907</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="6"/>
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
         <v>887</v>
       </c>
       <c r="E43">
-        <f t="shared" si="7"/>
+        <f>(F43/B43)*100</f>
         <v>2.2245540398740817</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>212</v>
       </c>
       <c r="G43">
-        <f t="shared" si="8"/>
+        <f>(H43/B43)*100</f>
         <v>29.727177334732424</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>2833</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>3045</v>
       </c>
       <c r="J43">
-        <f t="shared" si="9"/>
+        <f>(K43/B43)*100</f>
         <v>7.0828961175236103</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="2">
         <v>675</v>
       </c>
       <c r="L43">
-        <f t="shared" si="10"/>
+        <f>(M43/B43)*100</f>
         <v>60.965372507869887</v>
       </c>
       <c r="M43">
         <v>5810</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="2">
         <v>6485</v>
       </c>
       <c r="O43">
@@ -4259,54 +4273,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="4"/>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
         <v>8086</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="5"/>
+      <c r="C44" s="2">
+        <f>D44/B44*100</f>
         <v>9.7699727924808322</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="6"/>
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
         <v>790</v>
       </c>
       <c r="E44">
-        <f t="shared" si="7"/>
+        <f>(F44/B44)*100</f>
         <v>2.0281968835023494</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>164</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
+        <f>(H44/B44)*100</f>
         <v>28.666831560722233</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>2318</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>2482</v>
       </c>
       <c r="J44">
-        <f t="shared" si="9"/>
+        <f>(K44/B44)*100</f>
         <v>7.7417759089784806</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>626</v>
       </c>
       <c r="L44">
-        <f t="shared" si="10"/>
+        <f>(M44/B44)*100</f>
         <v>61.563195646796927</v>
       </c>
       <c r="M44">
         <v>4978</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="2">
         <v>5604</v>
       </c>
       <c r="O44">
@@ -4340,54 +4354,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="4"/>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
         <v>10886</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="5"/>
+      <c r="C45" s="2">
+        <f>D45/B45*100</f>
         <v>11.914385449200807</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="6"/>
+      <c r="D45" s="2">
+        <f t="shared" si="1"/>
         <v>1297</v>
       </c>
       <c r="E45">
-        <f t="shared" si="7"/>
+        <f>(F45/B45)*100</f>
         <v>1.5065221385265479</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>164</v>
       </c>
       <c r="G45">
-        <f t="shared" si="8"/>
+        <f>(H45/B45)*100</f>
         <v>34.824545287525261</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <v>3791</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <v>3955</v>
       </c>
       <c r="J45">
-        <f t="shared" si="9"/>
+        <f>(K45/B45)*100</f>
         <v>10.40786331067426</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="2">
         <v>1133</v>
       </c>
       <c r="L45">
-        <f t="shared" si="10"/>
+        <f>(M45/B45)*100</f>
         <v>53.261069263273932</v>
       </c>
       <c r="M45">
         <v>5798</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="2">
         <v>6931</v>
       </c>
       <c r="O45">
@@ -4421,54 +4435,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="4"/>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
         <v>5006</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="5"/>
+      <c r="C46" s="2">
+        <f>D46/B46*100</f>
         <v>6.9516580103875345</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="6"/>
+      <c r="D46" s="2">
+        <f t="shared" si="1"/>
         <v>348</v>
       </c>
       <c r="E46">
-        <f t="shared" si="7"/>
+        <f>(F46/B46)*100</f>
         <v>1.7778665601278467</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>89</v>
       </c>
       <c r="G46">
-        <f t="shared" si="8"/>
+        <f>(H46/B46)*100</f>
         <v>30.523371953655616</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>1528</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <v>1617</v>
       </c>
       <c r="J46">
-        <f t="shared" si="9"/>
+        <f>(K46/B46)*100</f>
         <v>5.1737914502596887</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <v>259</v>
       </c>
       <c r="L46">
-        <f t="shared" si="10"/>
+        <f>(M46/B46)*100</f>
         <v>62.524970035956848</v>
       </c>
       <c r="M46">
         <v>3130</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="2">
         <v>3389</v>
       </c>
       <c r="O46">
@@ -4502,54 +4516,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="4"/>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
         <v>5263</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="5"/>
+      <c r="C47" s="2">
+        <f>D47/B47*100</f>
         <v>13.395401862055861</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="6"/>
+      <c r="D47" s="2">
+        <f t="shared" si="1"/>
         <v>705</v>
       </c>
       <c r="E47">
-        <f t="shared" si="7"/>
+        <f>(F47/B47)*100</f>
         <v>2.0710621318639557</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>109</v>
       </c>
       <c r="G47">
-        <f t="shared" si="8"/>
+        <f>(H47/B47)*100</f>
         <v>28.500855025650768</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>1500</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>1609</v>
       </c>
       <c r="J47">
-        <f t="shared" si="9"/>
+        <f>(K47/B47)*100</f>
         <v>11.324339730191905</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="2">
         <v>596</v>
       </c>
       <c r="L47">
-        <f t="shared" si="10"/>
+        <f>(M47/B47)*100</f>
         <v>58.103743112293373</v>
       </c>
       <c r="M47">
         <v>3058</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="2">
         <v>3654</v>
       </c>
       <c r="O47">
@@ -4583,54 +4597,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="4"/>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
         <v>3696</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="5"/>
+      <c r="C48" s="2">
+        <f>D48/B48*100</f>
         <v>9.4155844155844157</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="6"/>
+      <c r="D48" s="2">
+        <f t="shared" si="1"/>
         <v>348</v>
       </c>
       <c r="E48">
-        <f t="shared" si="7"/>
+        <f>(F48/B48)*100</f>
         <v>2.9220779220779218</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>108</v>
       </c>
       <c r="G48">
-        <f t="shared" si="8"/>
+        <f>(H48/B48)*100</f>
         <v>29.166666666666668</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <v>1078</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <v>1186</v>
       </c>
       <c r="J48">
-        <f t="shared" si="9"/>
+        <f>(K48/B48)*100</f>
         <v>6.4935064935064926</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="2">
         <v>240</v>
       </c>
       <c r="L48">
-        <f t="shared" si="10"/>
+        <f>(M48/B48)*100</f>
         <v>61.417748917748916</v>
       </c>
       <c r="M48">
         <v>2270</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="2">
         <v>2510</v>
       </c>
       <c r="O48">
@@ -4664,54 +4678,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
-      <c r="B49">
-        <f t="shared" si="4"/>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
         <v>9310</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="5"/>
+      <c r="C49" s="2">
+        <f>D49/B49*100</f>
         <v>8.45327604726101</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="6"/>
+      <c r="D49" s="2">
+        <f t="shared" si="1"/>
         <v>787</v>
       </c>
       <c r="E49">
-        <f t="shared" si="7"/>
+        <f>(F49/B49)*100</f>
         <v>2.0515574650912995</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>191</v>
       </c>
       <c r="G49">
-        <f t="shared" si="8"/>
+        <f>(H49/B49)*100</f>
         <v>28.367346938775512</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>2641</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <v>2832</v>
       </c>
       <c r="J49">
-        <f t="shared" si="9"/>
+        <f>(K49/B49)*100</f>
         <v>6.4017185821697105</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="2">
         <v>596</v>
       </c>
       <c r="L49">
-        <f t="shared" si="10"/>
+        <f>(M49/B49)*100</f>
         <v>63.179377013963474</v>
       </c>
       <c r="M49">
         <v>5882</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="2">
         <v>6478</v>
       </c>
       <c r="O49">
@@ -4745,54 +4759,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
-      <c r="B50">
-        <f t="shared" si="4"/>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="5"/>
+      <c r="C50" s="2">
+        <f>D50/B50*100</f>
         <v>8.5545454545454547</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="6"/>
+      <c r="D50" s="2">
+        <f t="shared" si="1"/>
         <v>941</v>
       </c>
       <c r="E50">
-        <f t="shared" si="7"/>
+        <f>(F50/B50)*100</f>
         <v>2.6909090909090909</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>296</v>
       </c>
       <c r="G50">
-        <f t="shared" si="8"/>
+        <f>(H50/B50)*100</f>
         <v>28.018181818181819</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>3082</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>3378</v>
       </c>
       <c r="J50">
-        <f t="shared" si="9"/>
+        <f>(K50/B50)*100</f>
         <v>5.8636363636363642</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <v>645</v>
       </c>
       <c r="L50">
-        <f t="shared" si="10"/>
+        <f>(M50/B50)*100</f>
         <v>63.427272727272729</v>
       </c>
       <c r="M50">
         <v>6977</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="2">
         <v>7622</v>
       </c>
       <c r="O50">
@@ -4826,54 +4840,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>69</v>
       </c>
-      <c r="B51">
-        <f t="shared" si="4"/>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
         <v>20472</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="5"/>
+      <c r="C51" s="2">
+        <f>D51/B51*100</f>
         <v>9.8280578350918333</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="6"/>
+      <c r="D51" s="2">
+        <f t="shared" si="1"/>
         <v>2012</v>
       </c>
       <c r="E51">
-        <f t="shared" si="7"/>
+        <f>(F51/B51)*100</f>
         <v>1.6461508401719422</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>337</v>
       </c>
       <c r="G51">
-        <f t="shared" si="8"/>
+        <f>(H51/B51)*100</f>
         <v>30.495310668229774</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>6243</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>6580</v>
       </c>
       <c r="J51">
-        <f t="shared" si="9"/>
+        <f>(K51/B51)*100</f>
         <v>8.1819069949198902</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <v>1675</v>
       </c>
       <c r="L51">
-        <f t="shared" si="10"/>
+        <f>(M51/B51)*100</f>
         <v>59.67663149667839</v>
       </c>
       <c r="M51">
         <v>12217</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="2">
         <v>13892</v>
       </c>
       <c r="O51">
@@ -4907,54 +4921,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
-      <c r="B52">
-        <f t="shared" si="4"/>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
         <v>10499</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="5"/>
+      <c r="C52" s="2">
+        <f>D52/B52*100</f>
         <v>12.829793313648919</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="6"/>
+      <c r="D52" s="2">
+        <f t="shared" si="1"/>
         <v>1347</v>
       </c>
       <c r="E52">
-        <f t="shared" si="7"/>
+        <f>(F52/B52)*100</f>
         <v>2.7621678255071913</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>290</v>
       </c>
       <c r="G52">
-        <f t="shared" si="8"/>
+        <f>(H52/B52)*100</f>
         <v>34.44137536908277</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>3616</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <v>3906</v>
       </c>
       <c r="J52">
-        <f t="shared" si="9"/>
+        <f>(K52/B52)*100</f>
         <v>10.067625488141728</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="2">
         <v>1057</v>
       </c>
       <c r="L52">
-        <f t="shared" si="10"/>
+        <f>(M52/B52)*100</f>
         <v>52.728831317268309</v>
       </c>
       <c r="M52">
         <v>5536</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="2">
         <v>6593</v>
       </c>
       <c r="O52">
@@ -4988,54 +5002,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
-      <c r="B53">
-        <f t="shared" si="4"/>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
         <v>102066</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="5"/>
+      <c r="C53" s="2">
+        <f>D53/B53*100</f>
         <v>5.9079419199341601</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="6"/>
+      <c r="D53" s="2">
+        <f t="shared" si="1"/>
         <v>6030</v>
       </c>
       <c r="E53">
-        <f t="shared" si="7"/>
+        <f>(F53/B53)*100</f>
         <v>2.5258166284560972</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>2578</v>
       </c>
       <c r="G53">
-        <f t="shared" si="8"/>
+        <f>(H53/B53)*100</f>
         <v>50.69464856073521</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>51742</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <v>54320</v>
       </c>
       <c r="J53">
-        <f t="shared" si="9"/>
+        <f>(K53/B53)*100</f>
         <v>3.3821252914780628</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="2">
         <v>3452</v>
       </c>
       <c r="L53">
-        <f t="shared" si="10"/>
+        <f>(M53/B53)*100</f>
         <v>43.39740951933063</v>
       </c>
       <c r="M53">
         <v>44294</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="2">
         <v>47746</v>
       </c>
       <c r="O53">
@@ -5069,54 +5083,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="4"/>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="5"/>
+      <c r="C54" s="2">
+        <f>D54/B54*100</f>
         <v>9.3636363636363651</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="6"/>
+      <c r="D54" s="2">
+        <f t="shared" si="1"/>
         <v>1030</v>
       </c>
       <c r="E54">
-        <f t="shared" si="7"/>
+        <f>(F54/B54)*100</f>
         <v>2.9545454545454546</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>325</v>
       </c>
       <c r="G54">
-        <f t="shared" si="8"/>
+        <f>(H54/B54)*100</f>
         <v>26.981818181818184</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <v>2968</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <v>3293</v>
       </c>
       <c r="J54">
-        <f t="shared" si="9"/>
+        <f>(K54/B54)*100</f>
         <v>6.4090909090909083</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="2">
         <v>705</v>
       </c>
       <c r="L54">
-        <f t="shared" si="10"/>
+        <f>(M54/B54)*100</f>
         <v>63.654545454545456</v>
       </c>
       <c r="M54">
         <v>7002</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="2">
         <v>7707</v>
       </c>
       <c r="O54">
@@ -5150,54 +5164,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>73</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="4"/>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
         <v>5611</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="5"/>
+      <c r="C55" s="2">
+        <f>D55/B55*100</f>
         <v>13.06362502227767</v>
       </c>
-      <c r="D55">
-        <f t="shared" si="6"/>
+      <c r="D55" s="2">
+        <f t="shared" si="1"/>
         <v>733</v>
       </c>
       <c r="E55">
-        <f t="shared" si="7"/>
+        <f>(F55/B55)*100</f>
         <v>2.4772767777579756</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>139</v>
       </c>
       <c r="G55">
-        <f t="shared" si="8"/>
+        <f>(H55/B55)*100</f>
         <v>29.442167171627158</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>1652</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <v>1791</v>
       </c>
       <c r="J55">
-        <f t="shared" si="9"/>
+        <f>(K55/B55)*100</f>
         <v>10.586348244519693</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="2">
         <v>594</v>
       </c>
       <c r="L55">
-        <f t="shared" si="10"/>
+        <f>(M55/B55)*100</f>
         <v>57.494207806095169</v>
       </c>
       <c r="M55">
         <v>3226</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="2">
         <v>3820</v>
       </c>
       <c r="O55">
@@ -5231,54 +5245,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="4"/>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
         <v>8154</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="5"/>
+      <c r="C56" s="2">
+        <f>D56/B56*100</f>
         <v>13.944076526857984</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="6"/>
+      <c r="D56" s="2">
+        <f t="shared" si="1"/>
         <v>1137</v>
       </c>
       <c r="E56">
-        <f t="shared" si="7"/>
+        <f>(F56/B56)*100</f>
         <v>2.4773117488349277</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>202</v>
       </c>
       <c r="G56">
-        <f t="shared" si="8"/>
+        <f>(H56/B56)*100</f>
         <v>30.990924699533974</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>2527</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <v>2729</v>
       </c>
       <c r="J56">
-        <f t="shared" si="9"/>
+        <f>(K56/B56)*100</f>
         <v>11.466764778023055</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="2">
         <v>935</v>
       </c>
       <c r="L56">
-        <f t="shared" si="10"/>
+        <f>(M56/B56)*100</f>
         <v>55.064998773608039</v>
       </c>
       <c r="M56">
         <v>4490</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="2">
         <v>5425</v>
       </c>
       <c r="O56">
@@ -5312,54 +5326,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>75</v>
       </c>
-      <c r="B57">
-        <f t="shared" si="4"/>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
         <v>18972</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="5"/>
+      <c r="C57" s="2">
+        <f>D57/B57*100</f>
         <v>13.483027619650009</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="6"/>
+      <c r="D57" s="2">
+        <f t="shared" si="1"/>
         <v>2558</v>
       </c>
       <c r="E57">
-        <f t="shared" si="7"/>
+        <f>(F57/B57)*100</f>
         <v>1.923887834703774</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>365</v>
       </c>
       <c r="G57">
-        <f t="shared" si="8"/>
+        <f>(H57/B57)*100</f>
         <v>30.197132616487455</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>5729</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <v>6094</v>
       </c>
       <c r="J57">
-        <f t="shared" si="9"/>
+        <f>(K57/B57)*100</f>
         <v>11.559139784946236</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="2">
         <v>2193</v>
       </c>
       <c r="L57">
-        <f t="shared" si="10"/>
+        <f>(M57/B57)*100</f>
         <v>56.319839763862532</v>
       </c>
       <c r="M57">
         <v>10685</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="2">
         <v>12878</v>
       </c>
       <c r="O57">
@@ -5393,54 +5407,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>76</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="4"/>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
         <v>136576</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="5"/>
+      <c r="C58" s="2">
+        <f>D58/B58*100</f>
         <v>7.9091494845360817</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="6"/>
+      <c r="D58" s="2">
+        <f t="shared" si="1"/>
         <v>10802</v>
       </c>
       <c r="E58">
-        <f t="shared" si="7"/>
+        <f>(F58/B58)*100</f>
         <v>2.5590147610121834</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>3495</v>
       </c>
       <c r="G58">
-        <f t="shared" si="8"/>
+        <f>(H58/B58)*100</f>
         <v>34.791617853795685</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <v>47517</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <v>51012</v>
       </c>
       <c r="J58">
-        <f t="shared" si="9"/>
+        <f>(K58/B58)*100</f>
         <v>5.3501347235238983</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="2">
         <v>7307</v>
       </c>
       <c r="L58">
-        <f t="shared" si="10"/>
+        <f>(M58/B58)*100</f>
         <v>57.299232661668228</v>
       </c>
       <c r="M58">
         <v>78257</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="2">
         <v>85564</v>
       </c>
       <c r="O58">
@@ -5474,54 +5488,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="4"/>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
         <v>6509</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="5"/>
+      <c r="C59" s="2">
+        <f>D59/B59*100</f>
         <v>6.8827776924258721</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="6"/>
+      <c r="D59" s="2">
+        <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="E59">
-        <f t="shared" si="7"/>
+        <f>(F59/B59)*100</f>
         <v>1.4748809340912583</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>96</v>
       </c>
       <c r="G59">
-        <f t="shared" si="8"/>
+        <f>(H59/B59)*100</f>
         <v>32.432017206944231</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <v>2111</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <v>2207</v>
       </c>
       <c r="J59">
-        <f t="shared" si="9"/>
+        <f>(K59/B59)*100</f>
         <v>5.4078967583346138</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="2">
         <v>352</v>
       </c>
       <c r="L59">
-        <f t="shared" si="10"/>
+        <f>(M59/B59)*100</f>
         <v>60.685205100629901</v>
       </c>
       <c r="M59">
         <v>3950</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="2">
         <v>4302</v>
       </c>
       <c r="O59">
@@ -5555,54 +5569,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
-      <c r="B60">
-        <f t="shared" si="4"/>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
         <v>4732</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="5"/>
+      <c r="C60" s="2">
+        <f>D60/B60*100</f>
         <v>13.567202028740491</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="6"/>
+      <c r="D60" s="2">
+        <f t="shared" si="1"/>
         <v>642</v>
       </c>
       <c r="E60">
-        <f t="shared" si="7"/>
+        <f>(F60/B60)*100</f>
         <v>2.3245984784446323</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <v>110</v>
       </c>
       <c r="G60">
-        <f t="shared" si="8"/>
+        <f>(H60/B60)*100</f>
         <v>28.972950126796281</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2">
         <v>1371</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <v>1481</v>
       </c>
       <c r="J60">
-        <f t="shared" si="9"/>
+        <f>(K60/B60)*100</f>
         <v>11.242603550295858</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="2">
         <v>532</v>
       </c>
       <c r="L60">
-        <f t="shared" si="10"/>
+        <f>(M60/B60)*100</f>
         <v>57.459847844463226</v>
       </c>
       <c r="M60">
         <v>2719</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="2">
         <v>3251</v>
       </c>
       <c r="O60">
@@ -5636,54 +5650,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="B61">
-        <f t="shared" si="4"/>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
         <v>6278</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="5"/>
+      <c r="C61" s="2">
+        <f>D61/B61*100</f>
         <v>8.5058935966868443</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="6"/>
+      <c r="D61" s="2">
+        <f t="shared" si="1"/>
         <v>534</v>
       </c>
       <c r="E61">
-        <f t="shared" si="7"/>
+        <f>(F61/B61)*100</f>
         <v>1.210576616756929</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>76</v>
       </c>
       <c r="G61">
-        <f t="shared" si="8"/>
+        <f>(H61/B61)*100</f>
         <v>31.124561962408411</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <v>1954</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <v>2030</v>
       </c>
       <c r="J61">
-        <f t="shared" si="9"/>
+        <f>(K61/B61)*100</f>
         <v>7.2953169799299138</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="2">
         <v>458</v>
       </c>
       <c r="L61">
-        <f t="shared" si="10"/>
+        <f>(M61/B61)*100</f>
         <v>60.369544440904747</v>
       </c>
       <c r="M61">
         <v>3790</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="2">
         <v>4248</v>
       </c>
       <c r="O61">
@@ -5717,54 +5731,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
-      <c r="B62">
-        <f t="shared" si="4"/>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
         <v>9341</v>
       </c>
-      <c r="C62">
-        <f t="shared" si="5"/>
+      <c r="C62" s="2">
+        <f>D62/B62*100</f>
         <v>5.9094315383791889</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="6"/>
+      <c r="D62" s="2">
+        <f t="shared" si="1"/>
         <v>552</v>
       </c>
       <c r="E62">
-        <f t="shared" si="7"/>
+        <f>(F62/B62)*100</f>
         <v>1.1347821432394818</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>106</v>
       </c>
       <c r="G62">
-        <f t="shared" si="8"/>
+        <f>(H62/B62)*100</f>
         <v>28.059094315383792</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="2">
         <v>2621</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <v>2727</v>
       </c>
       <c r="J62">
-        <f t="shared" si="9"/>
+        <f>(K62/B62)*100</f>
         <v>4.7746493951397069</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="2">
         <v>446</v>
       </c>
       <c r="L62">
-        <f t="shared" si="10"/>
+        <f>(M62/B62)*100</f>
         <v>66.031474146237031</v>
       </c>
       <c r="M62">
         <v>6168</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="2">
         <v>6614</v>
       </c>
       <c r="O62">
@@ -5798,54 +5812,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="4"/>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
         <v>12965</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="5"/>
+      <c r="C63" s="2">
+        <f>D63/B63*100</f>
         <v>10.019282684149633</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="6"/>
+      <c r="D63" s="2">
+        <f t="shared" si="1"/>
         <v>1299</v>
       </c>
       <c r="E63">
-        <f t="shared" si="7"/>
+        <f>(F63/B63)*100</f>
         <v>2.7767065175472427</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>360</v>
       </c>
       <c r="G63">
-        <f t="shared" si="8"/>
+        <f>(H63/B63)*100</f>
         <v>34.346317007327421</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <v>4453</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <v>4813</v>
       </c>
       <c r="J63">
-        <f t="shared" si="9"/>
+        <f>(K63/B63)*100</f>
         <v>7.2425761666023911</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="2">
         <v>939</v>
       </c>
       <c r="L63">
-        <f t="shared" si="10"/>
+        <f>(M63/B63)*100</f>
         <v>55.634400308522949</v>
       </c>
       <c r="M63">
         <v>7213</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="2">
         <v>8152</v>
       </c>
       <c r="O63">
@@ -5879,54 +5893,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="4"/>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
         <v>19535</v>
       </c>
-      <c r="C64">
-        <f t="shared" si="5"/>
+      <c r="C64" s="2">
+        <f>D64/B64*100</f>
         <v>12.101356539544406</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="6"/>
+      <c r="D64" s="2">
+        <f t="shared" si="1"/>
         <v>2364</v>
       </c>
       <c r="E64">
-        <f t="shared" si="7"/>
+        <f>(F64/B64)*100</f>
         <v>2.5441515229076015</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <v>497</v>
       </c>
       <c r="G64">
-        <f t="shared" si="8"/>
+        <f>(H64/B64)*100</f>
         <v>33.068850780650116</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="2">
         <v>6460</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <v>6957</v>
       </c>
       <c r="J64">
-        <f t="shared" si="9"/>
+        <f>(K64/B64)*100</f>
         <v>9.5572050166368072</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="2">
         <v>1867</v>
       </c>
       <c r="L64">
-        <f t="shared" si="10"/>
+        <f>(M64/B64)*100</f>
         <v>54.829792679805479</v>
       </c>
       <c r="M64">
         <v>10711</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="2">
         <v>12578</v>
       </c>
       <c r="O64">
@@ -5960,54 +5974,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
-      <c r="B65">
-        <f t="shared" si="4"/>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
         <v>22413</v>
       </c>
-      <c r="C65">
-        <f t="shared" si="5"/>
+      <c r="C65" s="2">
+        <f>D65/B65*100</f>
         <v>9.6015705171106056</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="6"/>
+      <c r="D65" s="2">
+        <f t="shared" si="1"/>
         <v>2152</v>
       </c>
       <c r="E65">
-        <f t="shared" si="7"/>
+        <f>(F65/B65)*100</f>
         <v>2.2754651318431267</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>510</v>
       </c>
       <c r="G65">
-        <f t="shared" si="8"/>
+        <f>(H65/B65)*100</f>
         <v>33.391335385713653</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <v>7484</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <v>7994</v>
       </c>
       <c r="J65">
-        <f t="shared" si="9"/>
+        <f>(K65/B65)*100</f>
         <v>7.3261053852674785</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <v>1642</v>
       </c>
       <c r="L65">
-        <f t="shared" si="10"/>
+        <f>(M65/B65)*100</f>
         <v>57.007094097175745</v>
       </c>
       <c r="M65">
         <v>12777</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="2">
         <v>14419</v>
       </c>
       <c r="O65">
@@ -6041,54 +6055,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
-      <c r="B66">
-        <f t="shared" si="4"/>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
         <v>8539</v>
       </c>
-      <c r="C66">
-        <f t="shared" si="5"/>
+      <c r="C66" s="2">
+        <f>D66/B66*100</f>
         <v>13.444197212788383</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="6"/>
+      <c r="D66" s="2">
+        <f t="shared" si="1"/>
         <v>1148</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E97" si="11">(F66/B66)*100</f>
+        <f>(F66/B66)*100</f>
         <v>2.1313971191005971</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <v>182</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G97" si="12">(H66/B66)*100</f>
+        <f>(H66/B66)*100</f>
         <v>26.572198149666239</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <v>2269</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <v>2451</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J97" si="13">(K66/B66)*100</f>
+        <f>(K66/B66)*100</f>
         <v>11.312800093687786</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="2">
         <v>966</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L97" si="14">(M66/B66)*100</f>
+        <f>(M66/B66)*100</f>
         <v>59.983604637545383</v>
       </c>
       <c r="M66">
         <v>5122</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="2">
         <v>6088</v>
       </c>
       <c r="O66">
@@ -6122,54 +6136,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
-      <c r="B67">
-        <f t="shared" ref="B67:B100" si="15">I67+N67</f>
+      <c r="B67" s="2">
+        <f t="shared" ref="B67:B100" si="2">I67+N67</f>
         <v>5778</v>
       </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C100" si="16">D67/B67*100</f>
+      <c r="C67" s="2">
+        <f>D67/B67*100</f>
         <v>8.826583592938734</v>
       </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D100" si="17">F67+K67</f>
+      <c r="D67" s="2">
+        <f t="shared" ref="D67:D100" si="3">F67+K67</f>
         <v>510</v>
       </c>
       <c r="E67">
-        <f t="shared" si="11"/>
+        <f>(F67/B67)*100</f>
         <v>1.7307026652821047</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <v>100</v>
       </c>
       <c r="G67">
-        <f t="shared" si="12"/>
+        <f>(H67/B67)*100</f>
         <v>31.169955001730703</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <v>1801</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <v>1901</v>
       </c>
       <c r="J67">
-        <f t="shared" si="13"/>
+        <f>(K67/B67)*100</f>
         <v>7.0958809276566281</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="2">
         <v>410</v>
       </c>
       <c r="L67">
-        <f t="shared" si="14"/>
+        <f>(M67/B67)*100</f>
         <v>60.003461405330562</v>
       </c>
       <c r="M67">
         <v>3467</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="2">
         <v>3877</v>
       </c>
       <c r="O67">
@@ -6203,54 +6217,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="15"/>
+      <c r="B68" s="2">
+        <f t="shared" si="2"/>
         <v>4668</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="16"/>
+      <c r="C68" s="2">
+        <f>D68/B68*100</f>
         <v>13.431876606683804</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="17"/>
+      <c r="D68" s="2">
+        <f t="shared" si="3"/>
         <v>627</v>
       </c>
       <c r="E68">
-        <f t="shared" si="11"/>
+        <f>(F68/B68)*100</f>
         <v>3.020565552699229</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <v>141</v>
       </c>
       <c r="G68">
-        <f t="shared" si="12"/>
+        <f>(H68/B68)*100</f>
         <v>27.463581833761779</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <v>1282</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <v>1423</v>
       </c>
       <c r="J68">
-        <f t="shared" si="13"/>
+        <f>(K68/B68)*100</f>
         <v>10.411311053984576</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <v>486</v>
       </c>
       <c r="L68">
-        <f t="shared" si="14"/>
+        <f>(M68/B68)*100</f>
         <v>59.104541559554413</v>
       </c>
       <c r="M68">
         <v>2759</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="2">
         <v>3245</v>
       </c>
       <c r="O68">
@@ -6284,54 +6298,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="15"/>
+      <c r="B69" s="2">
+        <f t="shared" si="2"/>
         <v>4387</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="16"/>
+      <c r="C69" s="2">
+        <f>D69/B69*100</f>
         <v>11.579667198541143</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="17"/>
+      <c r="D69" s="2">
+        <f t="shared" si="3"/>
         <v>508</v>
       </c>
       <c r="E69">
-        <f t="shared" si="11"/>
+        <f>(F69/B69)*100</f>
         <v>2.530202872122179</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <v>111</v>
       </c>
       <c r="G69">
-        <f t="shared" si="12"/>
+        <f>(H69/B69)*100</f>
         <v>29.473444267152953</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2">
         <v>1293</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <v>1404</v>
       </c>
       <c r="J69">
-        <f t="shared" si="13"/>
+        <f>(K69/B69)*100</f>
         <v>9.0494643264189651</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="2">
         <v>397</v>
       </c>
       <c r="L69">
-        <f t="shared" si="14"/>
+        <f>(M69/B69)*100</f>
         <v>58.946888534305906</v>
       </c>
       <c r="M69">
         <v>2586</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="2">
         <v>2983</v>
       </c>
       <c r="O69">
@@ -6365,54 +6379,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="15"/>
+      <c r="B70" s="2">
+        <f t="shared" si="2"/>
         <v>5528</v>
       </c>
-      <c r="C70">
-        <f t="shared" si="16"/>
+      <c r="C70" s="2">
+        <f>D70/B70*100</f>
         <v>10.347322720694645</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="17"/>
+      <c r="D70" s="2">
+        <f t="shared" si="3"/>
         <v>572</v>
       </c>
       <c r="E70">
-        <f t="shared" si="11"/>
+        <f>(F70/B70)*100</f>
         <v>2.6049204052098407</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <v>144</v>
       </c>
       <c r="G70">
-        <f t="shared" si="12"/>
+        <f>(H70/B70)*100</f>
         <v>28.075253256150507</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="2">
         <v>1552</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <v>1696</v>
       </c>
       <c r="J70">
-        <f t="shared" si="13"/>
+        <f>(K70/B70)*100</f>
         <v>7.7424023154848047</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="2">
         <v>428</v>
       </c>
       <c r="L70">
-        <f t="shared" si="14"/>
+        <f>(M70/B70)*100</f>
         <v>61.577424023154848</v>
       </c>
       <c r="M70">
         <v>3404</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="2">
         <v>3832</v>
       </c>
       <c r="O70">
@@ -6446,54 +6460,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>89</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="15"/>
+      <c r="B71" s="2">
+        <f t="shared" si="2"/>
         <v>24779</v>
       </c>
-      <c r="C71">
-        <f t="shared" si="16"/>
+      <c r="C71" s="2">
+        <f>D71/B71*100</f>
         <v>8.6847733968279588</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="17"/>
+      <c r="D71" s="2">
+        <f t="shared" si="3"/>
         <v>2152</v>
       </c>
       <c r="E71">
-        <f t="shared" si="11"/>
+        <f>(F71/B71)*100</f>
         <v>2.0218733605068806</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <v>501</v>
       </c>
       <c r="G71">
-        <f t="shared" si="12"/>
+        <f>(H71/B71)*100</f>
         <v>33.419427741232496</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2">
         <v>8281</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <v>8782</v>
       </c>
       <c r="J71">
-        <f t="shared" si="13"/>
+        <f>(K71/B71)*100</f>
         <v>6.6629000363210791</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="2">
         <v>1651</v>
       </c>
       <c r="L71">
-        <f t="shared" si="14"/>
+        <f>(M71/B71)*100</f>
         <v>57.895798861939539</v>
       </c>
       <c r="M71">
         <v>14346</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="2">
         <v>15997</v>
       </c>
       <c r="O71">
@@ -6527,54 +6541,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>90</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="15"/>
+      <c r="B72" s="2">
+        <f t="shared" si="2"/>
         <v>7633</v>
       </c>
-      <c r="C72">
-        <f t="shared" si="16"/>
+      <c r="C72" s="2">
+        <f>D72/B72*100</f>
         <v>12.930695663566095</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="17"/>
+      <c r="D72" s="2">
+        <f t="shared" si="3"/>
         <v>987</v>
       </c>
       <c r="E72">
-        <f t="shared" si="11"/>
+        <f>(F72/B72)*100</f>
         <v>3.5241713611948118</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>269</v>
       </c>
       <c r="G72">
-        <f t="shared" si="12"/>
+        <f>(H72/B72)*100</f>
         <v>30.446744399318749</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="2">
         <v>2324</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="2">
         <v>2593</v>
       </c>
       <c r="J72">
-        <f t="shared" si="13"/>
+        <f>(K72/B72)*100</f>
         <v>9.4065243023712828</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="2">
         <v>718</v>
       </c>
       <c r="L72">
-        <f t="shared" si="14"/>
+        <f>(M72/B72)*100</f>
         <v>56.622559937115156</v>
       </c>
       <c r="M72">
         <v>4322</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="2">
         <v>5040</v>
       </c>
       <c r="O72">
@@ -6608,54 +6622,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
-      <c r="B73">
-        <f t="shared" si="15"/>
+      <c r="B73" s="2">
+        <f t="shared" si="2"/>
         <v>3295</v>
       </c>
-      <c r="C73">
-        <f t="shared" si="16"/>
+      <c r="C73" s="2">
+        <f>D73/B73*100</f>
         <v>9.4081942336874054</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="17"/>
+      <c r="D73" s="2">
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="E73">
-        <f t="shared" si="11"/>
+        <f>(F73/B73)*100</f>
         <v>0.94081942336874047</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <v>31</v>
       </c>
       <c r="G73">
-        <f t="shared" si="12"/>
+        <f>(H73/B73)*100</f>
         <v>27.981790591805765</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="2">
         <v>922</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="2">
         <v>953</v>
       </c>
       <c r="J73">
-        <f t="shared" si="13"/>
+        <f>(K73/B73)*100</f>
         <v>8.467374810318665</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="2">
         <v>279</v>
       </c>
       <c r="L73">
-        <f t="shared" si="14"/>
+        <f>(M73/B73)*100</f>
         <v>62.610015174506827</v>
       </c>
       <c r="M73">
         <v>2063</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="2">
         <v>2342</v>
       </c>
       <c r="O73">
@@ -6689,54 +6703,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>92</v>
       </c>
-      <c r="B74">
-        <f t="shared" si="15"/>
+      <c r="B74" s="2">
+        <f t="shared" si="2"/>
         <v>8083</v>
       </c>
-      <c r="C74">
-        <f t="shared" si="16"/>
+      <c r="C74" s="2">
+        <f>D74/B74*100</f>
         <v>10.689100581467278</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="17"/>
+      <c r="D74" s="2">
+        <f t="shared" si="3"/>
         <v>864</v>
       </c>
       <c r="E74">
-        <f t="shared" si="11"/>
+        <f>(F74/B74)*100</f>
         <v>1.9423481380675491</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <v>157</v>
       </c>
       <c r="G74">
-        <f t="shared" si="12"/>
+        <f>(H74/B74)*100</f>
         <v>29.234195224545338</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <v>2363</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <v>2520</v>
       </c>
       <c r="J74">
-        <f t="shared" si="13"/>
+        <f>(K74/B74)*100</f>
         <v>8.7467524433997266</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="2">
         <v>707</v>
       </c>
       <c r="L74">
-        <f t="shared" si="14"/>
+        <f>(M74/B74)*100</f>
         <v>60.076704193987382</v>
       </c>
       <c r="M74">
         <v>4856</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="2">
         <v>5563</v>
       </c>
       <c r="O74">
@@ -6770,54 +6784,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>93</v>
       </c>
-      <c r="B75">
-        <f t="shared" si="15"/>
+      <c r="B75" s="2">
+        <f t="shared" si="2"/>
         <v>4900</v>
       </c>
-      <c r="C75">
-        <f t="shared" si="16"/>
+      <c r="C75" s="2">
+        <f>D75/B75*100</f>
         <v>12.775510204081634</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="17"/>
+      <c r="D75" s="2">
+        <f t="shared" si="3"/>
         <v>626</v>
       </c>
       <c r="E75">
-        <f t="shared" si="11"/>
+        <f>(F75/B75)*100</f>
         <v>2.489795918367347</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>122</v>
       </c>
       <c r="G75">
-        <f t="shared" si="12"/>
+        <f>(H75/B75)*100</f>
         <v>30.795918367346935</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="2">
         <v>1509</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <v>1631</v>
       </c>
       <c r="J75">
-        <f t="shared" si="13"/>
+        <f>(K75/B75)*100</f>
         <v>10.285714285714285</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="2">
         <v>504</v>
       </c>
       <c r="L75">
-        <f t="shared" si="14"/>
+        <f>(M75/B75)*100</f>
         <v>56.428571428571431</v>
       </c>
       <c r="M75">
         <v>2765</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="2">
         <v>3269</v>
       </c>
       <c r="O75">
@@ -6851,54 +6865,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
-      <c r="B76">
-        <f t="shared" si="15"/>
+      <c r="B76" s="2">
+        <f t="shared" si="2"/>
         <v>14182</v>
       </c>
-      <c r="C76">
-        <f t="shared" si="16"/>
+      <c r="C76" s="2">
+        <f>D76/B76*100</f>
         <v>8.6729657312085742</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="17"/>
+      <c r="D76" s="2">
+        <f t="shared" si="3"/>
         <v>1230</v>
       </c>
       <c r="E76">
-        <f t="shared" si="11"/>
+        <f>(F76/B76)*100</f>
         <v>1.6640812297278242</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <v>236</v>
       </c>
       <c r="G76">
-        <f t="shared" si="12"/>
+        <f>(H76/B76)*100</f>
         <v>29.882950218586942</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2">
         <v>4238</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <v>4474</v>
       </c>
       <c r="J76">
-        <f t="shared" si="13"/>
+        <f>(K76/B76)*100</f>
         <v>7.0088845014807504</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="2">
         <v>994</v>
       </c>
       <c r="L76">
-        <f t="shared" si="14"/>
+        <f>(M76/B76)*100</f>
         <v>61.444084050204481</v>
       </c>
       <c r="M76">
         <v>8714</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="2">
         <v>9708</v>
       </c>
       <c r="O76">
@@ -6932,54 +6946,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>95</v>
       </c>
-      <c r="B77">
-        <f t="shared" si="15"/>
+      <c r="B77" s="2">
+        <f t="shared" si="2"/>
         <v>3701</v>
       </c>
-      <c r="C77">
-        <f t="shared" si="16"/>
+      <c r="C77" s="2">
+        <f>D77/B77*100</f>
         <v>10.970008105917319</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="17"/>
+      <c r="D77" s="2">
+        <f t="shared" si="3"/>
         <v>406</v>
       </c>
       <c r="E77">
-        <f t="shared" si="11"/>
+        <f>(F77/B77)*100</f>
         <v>1.6752229127262903</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>62</v>
       </c>
       <c r="G77">
-        <f t="shared" si="12"/>
+        <f>(H77/B77)*100</f>
         <v>28.803026209132664</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="2">
         <v>1066</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <v>1128</v>
       </c>
       <c r="J77">
-        <f t="shared" si="13"/>
+        <f>(K77/B77)*100</f>
         <v>9.2947851931910304</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="2">
         <v>344</v>
       </c>
       <c r="L77">
-        <f t="shared" si="14"/>
+        <f>(M77/B77)*100</f>
         <v>60.226965684950017</v>
       </c>
       <c r="M77">
         <v>2229</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="2">
         <v>2573</v>
       </c>
       <c r="O77">
@@ -7013,54 +7027,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>96</v>
       </c>
-      <c r="B78">
-        <f t="shared" si="15"/>
+      <c r="B78" s="2">
+        <f t="shared" si="2"/>
         <v>298267</v>
       </c>
-      <c r="C78">
-        <f t="shared" si="16"/>
+      <c r="C78" s="2">
+        <f>D78/B78*100</f>
         <v>9.8371593236932</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="17"/>
+      <c r="D78" s="2">
+        <f t="shared" si="3"/>
         <v>29341</v>
       </c>
       <c r="E78">
-        <f t="shared" si="11"/>
+        <f>(F78/B78)*100</f>
         <v>2.9155085879430174</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>8696</v>
       </c>
       <c r="G78">
-        <f t="shared" si="12"/>
+        <f>(H78/B78)*100</f>
         <v>35.909101576775171</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2">
         <v>107105</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <v>115801</v>
       </c>
       <c r="J78">
-        <f t="shared" si="13"/>
+        <f>(K78/B78)*100</f>
         <v>6.9216507357501831</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="2">
         <v>20645</v>
       </c>
       <c r="L78">
-        <f t="shared" si="14"/>
+        <f>(M78/B78)*100</f>
         <v>54.253739099531629</v>
       </c>
       <c r="M78">
         <v>161821</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="2">
         <v>182466</v>
       </c>
       <c r="O78">
@@ -7094,54 +7108,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>97</v>
       </c>
-      <c r="B79">
-        <f t="shared" si="15"/>
+      <c r="B79" s="2">
+        <f t="shared" si="2"/>
         <v>54741</v>
       </c>
-      <c r="C79">
-        <f t="shared" si="16"/>
+      <c r="C79" s="2">
+        <f>D79/B79*100</f>
         <v>12.305219122778173</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="17"/>
+      <c r="D79" s="2">
+        <f t="shared" si="3"/>
         <v>6736</v>
       </c>
       <c r="E79">
-        <f t="shared" si="11"/>
+        <f>(F79/B79)*100</f>
         <v>2.0368645074076106</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>1115</v>
       </c>
       <c r="G79">
-        <f t="shared" si="12"/>
+        <f>(H79/B79)*100</f>
         <v>32.604446393014378</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2">
         <v>17848</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <v>18963</v>
       </c>
       <c r="J79">
-        <f t="shared" si="13"/>
+        <f>(K79/B79)*100</f>
         <v>10.268354615370564</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="2">
         <v>5621</v>
       </c>
       <c r="L79">
-        <f t="shared" si="14"/>
+        <f>(M79/B79)*100</f>
         <v>55.090334484207446</v>
       </c>
       <c r="M79">
         <v>30157</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="2">
         <v>35778</v>
       </c>
       <c r="O79">
@@ -7175,54 +7189,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
-      <c r="B80">
-        <f t="shared" si="15"/>
+      <c r="B80" s="2">
+        <f t="shared" si="2"/>
         <v>10998</v>
       </c>
-      <c r="C80">
-        <f t="shared" si="16"/>
+      <c r="C80" s="2">
+        <f>D80/B80*100</f>
         <v>9.0016366612111298</v>
       </c>
-      <c r="D80">
-        <f t="shared" si="17"/>
+      <c r="D80" s="2">
+        <f t="shared" si="3"/>
         <v>990</v>
       </c>
       <c r="E80">
-        <f t="shared" si="11"/>
+        <f>(F80/B80)*100</f>
         <v>3.3824331696672121</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <v>372</v>
       </c>
       <c r="G80">
-        <f t="shared" si="12"/>
+        <f>(H80/B80)*100</f>
         <v>38.625204582651392</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <v>4248</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <v>4620</v>
       </c>
       <c r="J80">
-        <f t="shared" si="13"/>
+        <f>(K80/B80)*100</f>
         <v>5.6192034915439173</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="2">
         <v>618</v>
       </c>
       <c r="L80">
-        <f t="shared" si="14"/>
+        <f>(M80/B80)*100</f>
         <v>52.373158756137485</v>
       </c>
       <c r="M80">
         <v>5760</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="2">
         <v>6378</v>
       </c>
       <c r="O80">
@@ -7256,54 +7270,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>99</v>
       </c>
-      <c r="B81">
-        <f t="shared" si="15"/>
+      <c r="B81" s="2">
+        <f t="shared" si="2"/>
         <v>2518</v>
       </c>
-      <c r="C81">
-        <f t="shared" si="16"/>
+      <c r="C81" s="2">
+        <f>D81/B81*100</f>
         <v>8.8165210484511523</v>
       </c>
-      <c r="D81">
-        <f t="shared" si="17"/>
+      <c r="D81" s="2">
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="E81">
-        <f t="shared" si="11"/>
+        <f>(F81/B81)*100</f>
         <v>2.4225575853852264</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <v>61</v>
       </c>
       <c r="G81">
-        <f t="shared" si="12"/>
+        <f>(H81/B81)*100</f>
         <v>29.467831612390789</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="2">
         <v>742</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <v>803</v>
       </c>
       <c r="J81">
-        <f t="shared" si="13"/>
+        <f>(K81/B81)*100</f>
         <v>6.3939634630659254</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="2">
         <v>161</v>
       </c>
       <c r="L81">
-        <f t="shared" si="14"/>
+        <f>(M81/B81)*100</f>
         <v>61.715647339158068</v>
       </c>
       <c r="M81">
         <v>1554</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="2">
         <v>1715</v>
       </c>
       <c r="O81">
@@ -7337,54 +7351,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
-      <c r="B82">
-        <f t="shared" si="15"/>
+      <c r="B82" s="2">
+        <f t="shared" si="2"/>
         <v>5253</v>
       </c>
-      <c r="C82">
-        <f t="shared" si="16"/>
+      <c r="C82" s="2">
+        <f>D82/B82*100</f>
         <v>7.1197411003236244</v>
       </c>
-      <c r="D82">
-        <f t="shared" si="17"/>
+      <c r="D82" s="2">
+        <f t="shared" si="3"/>
         <v>374</v>
       </c>
       <c r="E82">
-        <f t="shared" si="11"/>
+        <f>(F82/B82)*100</f>
         <v>0.85665334094802958</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>45</v>
       </c>
       <c r="G82">
-        <f t="shared" si="12"/>
+        <f>(H82/B82)*100</f>
         <v>29.62116885589187</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="2">
         <v>1556</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="2">
         <v>1601</v>
       </c>
       <c r="J82">
-        <f t="shared" si="13"/>
+        <f>(K82/B82)*100</f>
         <v>6.2630877593755949</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="2">
         <v>329</v>
       </c>
       <c r="L82">
-        <f t="shared" si="14"/>
+        <f>(M82/B82)*100</f>
         <v>63.259090043784504</v>
       </c>
       <c r="M82">
         <v>3323</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="2">
         <v>3652</v>
       </c>
       <c r="O82">
@@ -7418,54 +7432,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
-      <c r="B83">
-        <f t="shared" si="15"/>
+      <c r="B83" s="2">
+        <f t="shared" si="2"/>
         <v>103041</v>
       </c>
-      <c r="C83">
-        <f t="shared" si="16"/>
+      <c r="C83" s="2">
+        <f>D83/B83*100</f>
         <v>8.9867140264554894</v>
       </c>
-      <c r="D83">
-        <f t="shared" si="17"/>
+      <c r="D83" s="2">
+        <f t="shared" si="3"/>
         <v>9260</v>
       </c>
       <c r="E83">
-        <f t="shared" si="11"/>
+        <f>(F83/B83)*100</f>
         <v>2.1748624334002971</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <v>2241</v>
       </c>
       <c r="G83">
-        <f t="shared" si="12"/>
+        <f>(H83/B83)*100</f>
         <v>33.345949670519502</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="2">
         <v>34360</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <v>36601</v>
       </c>
       <c r="J83">
-        <f t="shared" si="13"/>
+        <f>(K83/B83)*100</f>
         <v>6.8118515930551915</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="2">
         <v>7019</v>
       </c>
       <c r="L83">
-        <f t="shared" si="14"/>
+        <f>(M83/B83)*100</f>
         <v>57.66733630302501</v>
       </c>
       <c r="M83">
         <v>59421</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="2">
         <v>66440</v>
       </c>
       <c r="O83">
@@ -7499,54 +7513,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>102</v>
       </c>
-      <c r="B84">
-        <f t="shared" si="15"/>
+      <c r="B84" s="2">
+        <f t="shared" si="2"/>
         <v>6293</v>
       </c>
-      <c r="C84">
-        <f t="shared" si="16"/>
+      <c r="C84" s="2">
+        <f>D84/B84*100</f>
         <v>9.2006991895757189</v>
       </c>
-      <c r="D84">
-        <f t="shared" si="17"/>
+      <c r="D84" s="2">
+        <f t="shared" si="3"/>
         <v>579</v>
       </c>
       <c r="E84">
-        <f t="shared" si="11"/>
+        <f>(F84/B84)*100</f>
         <v>2.5583982202447166</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
         <v>161</v>
       </c>
       <c r="G84">
-        <f t="shared" si="12"/>
+        <f>(H84/B84)*100</f>
         <v>28.031145717463851</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="2">
         <v>1764</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <v>1925</v>
       </c>
       <c r="J84">
-        <f t="shared" si="13"/>
+        <f>(K84/B84)*100</f>
         <v>6.6423009693310027</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="2">
         <v>418</v>
       </c>
       <c r="L84">
-        <f t="shared" si="14"/>
+        <f>(M84/B84)*100</f>
         <v>62.768155092960434</v>
       </c>
       <c r="M84">
         <v>3950</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="2">
         <v>4368</v>
       </c>
       <c r="O84">
@@ -7580,54 +7594,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
-      <c r="B85">
-        <f t="shared" si="15"/>
+      <c r="B85" s="2">
+        <f t="shared" si="2"/>
         <v>19880</v>
       </c>
-      <c r="C85">
-        <f t="shared" si="16"/>
+      <c r="C85" s="2">
+        <f>D85/B85*100</f>
         <v>6.0362173038229372</v>
       </c>
-      <c r="D85">
-        <f t="shared" si="17"/>
+      <c r="D85" s="2">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="E85">
-        <f t="shared" si="11"/>
+        <f>(F85/B85)*100</f>
         <v>1.6951710261569417</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <v>337</v>
       </c>
       <c r="G85">
-        <f t="shared" si="12"/>
+        <f>(H85/B85)*100</f>
         <v>40.568410462776662</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="2">
         <v>8065</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <v>8402</v>
       </c>
       <c r="J85">
-        <f t="shared" si="13"/>
+        <f>(K85/B85)*100</f>
         <v>4.3410462776659964</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="2">
         <v>863</v>
       </c>
       <c r="L85">
-        <f t="shared" si="14"/>
+        <f>(M85/B85)*100</f>
         <v>53.395372233400408</v>
       </c>
       <c r="M85">
         <v>10615</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="2">
         <v>11478</v>
       </c>
       <c r="O85">
@@ -7661,54 +7675,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
-      <c r="B86">
-        <f t="shared" si="15"/>
+      <c r="B86" s="2">
+        <f t="shared" si="2"/>
         <v>69262</v>
       </c>
-      <c r="C86">
-        <f t="shared" si="16"/>
+      <c r="C86" s="2">
+        <f>D86/B86*100</f>
         <v>6.4811873754728424</v>
       </c>
-      <c r="D86">
-        <f t="shared" si="17"/>
+      <c r="D86" s="2">
+        <f t="shared" si="3"/>
         <v>4489</v>
       </c>
       <c r="E86">
-        <f t="shared" si="11"/>
+        <f>(F86/B86)*100</f>
         <v>3.2557535156362798</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>2255</v>
       </c>
       <c r="G86">
-        <f t="shared" si="12"/>
+        <f>(H86/B86)*100</f>
         <v>58.258496722589591</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="2">
         <v>40351</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="2">
         <v>42606</v>
       </c>
       <c r="J86">
-        <f t="shared" si="13"/>
+        <f>(K86/B86)*100</f>
         <v>3.2254338598365626</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="2">
         <v>2234</v>
       </c>
       <c r="L86">
-        <f t="shared" si="14"/>
+        <f>(M86/B86)*100</f>
         <v>35.260315901937574</v>
       </c>
       <c r="M86">
         <v>24422</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="2">
         <v>26656</v>
       </c>
       <c r="O86">
@@ -7742,54 +7756,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>105</v>
       </c>
-      <c r="B87">
-        <f t="shared" si="15"/>
+      <c r="B87" s="2">
+        <f t="shared" si="2"/>
         <v>9422</v>
       </c>
-      <c r="C87">
-        <f t="shared" si="16"/>
+      <c r="C87" s="2">
+        <f>D87/B87*100</f>
         <v>8.0343876034812141</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="17"/>
+      <c r="D87" s="2">
+        <f t="shared" si="3"/>
         <v>757</v>
       </c>
       <c r="E87">
-        <f t="shared" si="11"/>
+        <f>(F87/B87)*100</f>
         <v>2.1969857779664612</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <v>207</v>
       </c>
       <c r="G87">
-        <f t="shared" si="12"/>
+        <f>(H87/B87)*100</f>
         <v>30.672893228613884</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="2">
         <v>2890</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="2">
         <v>3097</v>
       </c>
       <c r="J87">
-        <f t="shared" si="13"/>
+        <f>(K87/B87)*100</f>
         <v>5.8374018255147524</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="2">
         <v>550</v>
       </c>
       <c r="L87">
-        <f t="shared" si="14"/>
+        <f>(M87/B87)*100</f>
         <v>61.292719167904906</v>
       </c>
       <c r="M87">
         <v>5775</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="2">
         <v>6325</v>
       </c>
       <c r="O87">
@@ -7823,54 +7837,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>106</v>
       </c>
-      <c r="B88">
-        <f t="shared" si="15"/>
+      <c r="B88" s="2">
+        <f t="shared" si="2"/>
         <v>3307</v>
       </c>
-      <c r="C88">
-        <f t="shared" si="16"/>
+      <c r="C88" s="2">
+        <f>D88/B88*100</f>
         <v>12.216510432416088</v>
       </c>
-      <c r="D88">
-        <f t="shared" si="17"/>
+      <c r="D88" s="2">
+        <f t="shared" si="3"/>
         <v>404</v>
       </c>
       <c r="E88">
-        <f t="shared" si="11"/>
+        <f>(F88/B88)*100</f>
         <v>2.6005442999697608</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
         <v>86</v>
       </c>
       <c r="G88">
-        <f t="shared" si="12"/>
+        <f>(H88/B88)*100</f>
         <v>30.329603870577564</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="2">
         <v>1003</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="2">
         <v>1089</v>
       </c>
       <c r="J88">
-        <f t="shared" si="13"/>
+        <f>(K88/B88)*100</f>
         <v>9.6159661324463261</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="2">
         <v>318</v>
       </c>
       <c r="L88">
-        <f t="shared" si="14"/>
+        <f>(M88/B88)*100</f>
         <v>57.453885697006349</v>
       </c>
       <c r="M88">
         <v>1900</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="2">
         <v>2218</v>
       </c>
       <c r="O88">
@@ -7904,54 +7918,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>107</v>
       </c>
-      <c r="B89">
-        <f t="shared" si="15"/>
+      <c r="B89" s="2">
+        <f t="shared" si="2"/>
         <v>7018</v>
       </c>
-      <c r="C89">
-        <f t="shared" si="16"/>
+      <c r="C89" s="2">
+        <f>D89/B89*100</f>
         <v>14.50555713878598</v>
       </c>
-      <c r="D89">
-        <f t="shared" si="17"/>
+      <c r="D89" s="2">
+        <f t="shared" si="3"/>
         <v>1018</v>
       </c>
       <c r="E89">
-        <f t="shared" si="11"/>
+        <f>(F89/B89)*100</f>
         <v>2.2228555143915645</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <v>156</v>
       </c>
       <c r="G89">
-        <f t="shared" si="12"/>
+        <f>(H89/B89)*100</f>
         <v>33.969791963522376</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="2">
         <v>2384</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="2">
         <v>2540</v>
       </c>
       <c r="J89">
-        <f t="shared" si="13"/>
+        <f>(K89/B89)*100</f>
         <v>12.282701624394415</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="2">
         <v>862</v>
       </c>
       <c r="L89">
-        <f t="shared" si="14"/>
+        <f>(M89/B89)*100</f>
         <v>51.52465089769165</v>
       </c>
       <c r="M89">
         <v>3616</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="2">
         <v>4478</v>
       </c>
       <c r="O89">
@@ -7985,54 +7999,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>108</v>
       </c>
-      <c r="B90">
-        <f t="shared" si="15"/>
+      <c r="B90" s="2">
+        <f t="shared" si="2"/>
         <v>3861</v>
       </c>
-      <c r="C90">
-        <f t="shared" si="16"/>
+      <c r="C90" s="2">
+        <f>D90/B90*100</f>
         <v>12.898212898212899</v>
       </c>
-      <c r="D90">
-        <f t="shared" si="17"/>
+      <c r="D90" s="2">
+        <f t="shared" si="3"/>
         <v>498</v>
       </c>
       <c r="E90">
-        <f t="shared" si="11"/>
+        <f>(F90/B90)*100</f>
         <v>1.9166019166019166</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>74</v>
       </c>
       <c r="G90">
-        <f t="shared" si="12"/>
+        <f>(H90/B90)*100</f>
         <v>26.936026936026934</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="2">
         <v>1040</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="2">
         <v>1114</v>
       </c>
       <c r="J90">
-        <f t="shared" si="13"/>
+        <f>(K90/B90)*100</f>
         <v>10.981610981610981</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="2">
         <v>424</v>
       </c>
       <c r="L90">
-        <f t="shared" si="14"/>
+        <f>(M90/B90)*100</f>
         <v>60.165760165760162</v>
       </c>
       <c r="M90">
         <v>2323</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="2">
         <v>2747</v>
       </c>
       <c r="O90">
@@ -8066,54 +8080,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>109</v>
       </c>
-      <c r="B91">
-        <f t="shared" si="15"/>
+      <c r="B91" s="2">
+        <f t="shared" si="2"/>
         <v>20768</v>
       </c>
-      <c r="C91">
-        <f t="shared" si="16"/>
+      <c r="C91" s="2">
+        <f>D91/B91*100</f>
         <v>12.880392912172573</v>
       </c>
-      <c r="D91">
-        <f t="shared" si="17"/>
+      <c r="D91" s="2">
+        <f t="shared" si="3"/>
         <v>2675</v>
       </c>
       <c r="E91">
-        <f t="shared" si="11"/>
+        <f>(F91/B91)*100</f>
         <v>2.5423728813559325</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
         <v>528</v>
       </c>
       <c r="G91">
-        <f t="shared" si="12"/>
+        <f>(H91/B91)*100</f>
         <v>33.315677966101696</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="2">
         <v>6919</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="2">
         <v>7447</v>
       </c>
       <c r="J91">
-        <f t="shared" si="13"/>
+        <f>(K91/B91)*100</f>
         <v>10.338020030816642</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="2">
         <v>2147</v>
       </c>
       <c r="L91">
-        <f t="shared" si="14"/>
+        <f>(M91/B91)*100</f>
         <v>53.803929121725737</v>
       </c>
       <c r="M91">
         <v>11174</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="2">
         <v>13321</v>
       </c>
       <c r="O91">
@@ -8147,54 +8161,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>110</v>
       </c>
-      <c r="B92">
-        <f t="shared" si="15"/>
+      <c r="B92" s="2">
+        <f t="shared" si="2"/>
         <v>30194</v>
       </c>
-      <c r="C92">
-        <f t="shared" si="16"/>
+      <c r="C92" s="2">
+        <f>D92/B92*100</f>
         <v>8.667284891037955</v>
       </c>
-      <c r="D92">
-        <f t="shared" si="17"/>
+      <c r="D92" s="2">
+        <f t="shared" si="3"/>
         <v>2617</v>
       </c>
       <c r="E92">
-        <f t="shared" si="11"/>
+        <f>(F92/B92)*100</f>
         <v>2.1991124064383651</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>664</v>
       </c>
       <c r="G92">
-        <f t="shared" si="12"/>
+        <f>(H92/B92)*100</f>
         <v>32.483274822812483</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="2">
         <v>9808</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="2">
         <v>10472</v>
       </c>
       <c r="J92">
-        <f t="shared" si="13"/>
+        <f>(K92/B92)*100</f>
         <v>6.4681724845995898</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="2">
         <v>1953</v>
       </c>
       <c r="L92">
-        <f t="shared" si="14"/>
+        <f>(M92/B92)*100</f>
         <v>58.849440286149566</v>
       </c>
       <c r="M92">
         <v>17769</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="2">
         <v>19722</v>
       </c>
       <c r="O92">
@@ -8228,54 +8242,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>111</v>
       </c>
-      <c r="B93">
-        <f t="shared" si="15"/>
+      <c r="B93" s="2">
+        <f t="shared" si="2"/>
         <v>12344</v>
       </c>
-      <c r="C93">
-        <f t="shared" si="16"/>
+      <c r="C93" s="2">
+        <f>D93/B93*100</f>
         <v>9.1866493843162669</v>
       </c>
-      <c r="D93">
-        <f t="shared" si="17"/>
+      <c r="D93" s="2">
+        <f t="shared" si="3"/>
         <v>1134</v>
       </c>
       <c r="E93">
-        <f t="shared" si="11"/>
+        <f>(F93/B93)*100</f>
         <v>1.7498379779650033</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>216</v>
       </c>
       <c r="G93">
-        <f t="shared" si="12"/>
+        <f>(H93/B93)*100</f>
         <v>31.092028515878162</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="2">
         <v>3838</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="2">
         <v>4054</v>
       </c>
       <c r="J93">
-        <f t="shared" si="13"/>
+        <f>(K93/B93)*100</f>
         <v>7.4368114063512643</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="2">
         <v>918</v>
       </c>
       <c r="L93">
-        <f t="shared" si="14"/>
+        <f>(M93/B93)*100</f>
         <v>59.721322099805576</v>
       </c>
       <c r="M93">
         <v>7372</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="2">
         <v>8290</v>
       </c>
       <c r="O93">
@@ -8309,54 +8323,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>112</v>
       </c>
-      <c r="B94">
-        <f t="shared" si="15"/>
+      <c r="B94" s="2">
+        <f t="shared" si="2"/>
         <v>3382</v>
       </c>
-      <c r="C94">
-        <f t="shared" si="16"/>
+      <c r="C94" s="2">
+        <f>D94/B94*100</f>
         <v>12.329982259018331</v>
       </c>
-      <c r="D94">
-        <f t="shared" si="17"/>
+      <c r="D94" s="2">
+        <f t="shared" si="3"/>
         <v>417</v>
       </c>
       <c r="E94">
-        <f t="shared" si="11"/>
+        <f>(F94/B94)*100</f>
         <v>1.7149615612063869</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>58</v>
       </c>
       <c r="G94">
-        <f t="shared" si="12"/>
+        <f>(H94/B94)*100</f>
         <v>31.726788882318157</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="2">
         <v>1073</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="2">
         <v>1131</v>
       </c>
       <c r="J94">
-        <f t="shared" si="13"/>
+        <f>(K94/B94)*100</f>
         <v>10.615020697811946</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="2">
         <v>359</v>
       </c>
       <c r="L94">
-        <f t="shared" si="14"/>
+        <f>(M94/B94)*100</f>
         <v>55.94322885866351</v>
       </c>
       <c r="M94">
         <v>1892</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="2">
         <v>2251</v>
       </c>
       <c r="O94">
@@ -8390,54 +8404,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>113</v>
       </c>
-      <c r="B95">
-        <f t="shared" si="15"/>
+      <c r="B95" s="2">
+        <f t="shared" si="2"/>
         <v>20503</v>
       </c>
-      <c r="C95">
-        <f t="shared" si="16"/>
+      <c r="C95" s="2">
+        <f>D95/B95*100</f>
         <v>12.354289616153734</v>
       </c>
-      <c r="D95">
-        <f t="shared" si="17"/>
+      <c r="D95" s="2">
+        <f t="shared" si="3"/>
         <v>2533</v>
       </c>
       <c r="E95">
-        <f t="shared" si="11"/>
+        <f>(F95/B95)*100</f>
         <v>3.5994732478173925</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <v>738</v>
       </c>
       <c r="G95">
-        <f t="shared" si="12"/>
+        <f>(H95/B95)*100</f>
         <v>34.229137199434227</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="2">
         <v>7018</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="2">
         <v>7756</v>
       </c>
       <c r="J95">
-        <f t="shared" si="13"/>
+        <f>(K95/B95)*100</f>
         <v>8.7548163683363409</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="2">
         <v>1795</v>
       </c>
       <c r="L95">
-        <f t="shared" si="14"/>
+        <f>(M95/B95)*100</f>
         <v>53.416573184412044</v>
       </c>
       <c r="M95">
         <v>10952</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="2">
         <v>12747</v>
       </c>
       <c r="O95">
@@ -8471,54 +8485,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>114</v>
       </c>
-      <c r="B96">
-        <f t="shared" si="15"/>
+      <c r="B96" s="2">
+        <f t="shared" si="2"/>
         <v>5897</v>
       </c>
-      <c r="C96">
-        <f t="shared" si="16"/>
+      <c r="C96" s="2">
+        <f>D96/B96*100</f>
         <v>11.616075970832625</v>
       </c>
-      <c r="D96">
-        <f t="shared" si="17"/>
+      <c r="D96" s="2">
+        <f t="shared" si="3"/>
         <v>685</v>
       </c>
       <c r="E96">
-        <f t="shared" si="11"/>
+        <f>(F96/B96)*100</f>
         <v>4.4090215363744276</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>260</v>
       </c>
       <c r="G96">
-        <f t="shared" si="12"/>
+        <f>(H96/B96)*100</f>
         <v>31.287095133118537</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="2">
         <v>1845</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="2">
         <v>2105</v>
       </c>
       <c r="J96">
-        <f t="shared" si="13"/>
+        <f>(K96/B96)*100</f>
         <v>7.2070544344581986</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="2">
         <v>425</v>
       </c>
       <c r="L96">
-        <f t="shared" si="14"/>
+        <f>(M96/B96)*100</f>
         <v>57.096828896048834</v>
       </c>
       <c r="M96">
         <v>3367</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="2">
         <v>3792</v>
       </c>
       <c r="O96">
@@ -8552,54 +8566,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>115</v>
       </c>
-      <c r="B97">
-        <f t="shared" si="15"/>
+      <c r="B97" s="2">
+        <f t="shared" si="2"/>
         <v>12211</v>
       </c>
-      <c r="C97">
-        <f t="shared" si="16"/>
+      <c r="C97" s="2">
+        <f>D97/B97*100</f>
         <v>8.7789697813446885</v>
       </c>
-      <c r="D97">
-        <f t="shared" si="17"/>
+      <c r="D97" s="2">
+        <f t="shared" si="3"/>
         <v>1072</v>
       </c>
       <c r="E97">
-        <f t="shared" si="11"/>
+        <f>(F97/B97)*100</f>
         <v>2.612398656948653</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>319</v>
       </c>
       <c r="G97">
-        <f t="shared" si="12"/>
+        <f>(H97/B97)*100</f>
         <v>38.35066743100483</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="2">
         <v>4683</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="2">
         <v>5002</v>
       </c>
       <c r="J97">
-        <f t="shared" si="13"/>
+        <f>(K97/B97)*100</f>
         <v>6.1665711243960359</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="2">
         <v>753</v>
       </c>
       <c r="L97">
-        <f t="shared" si="14"/>
+        <f>(M97/B97)*100</f>
         <v>52.870362787650485</v>
       </c>
       <c r="M97">
         <v>6456</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="2">
         <v>7209</v>
       </c>
       <c r="O97">
@@ -8633,54 +8647,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>116</v>
       </c>
-      <c r="B98">
-        <f t="shared" si="15"/>
+      <c r="B98" s="2">
+        <f t="shared" si="2"/>
         <v>59925</v>
       </c>
-      <c r="C98">
-        <f t="shared" si="16"/>
+      <c r="C98" s="2">
+        <f>D98/B98*100</f>
         <v>10.506466416353776</v>
       </c>
-      <c r="D98">
-        <f t="shared" si="17"/>
+      <c r="D98" s="2">
+        <f t="shared" si="3"/>
         <v>6296</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:E100" si="18">(F98/B98)*100</f>
+        <f>(F98/B98)*100</f>
         <v>2.4030037546933665</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>1440</v>
       </c>
       <c r="G98">
-        <f t="shared" ref="G98:G100" si="19">(H98/B98)*100</f>
+        <f>(H98/B98)*100</f>
         <v>36.110137672090111</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="2">
         <v>21639</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="2">
         <v>23079</v>
       </c>
       <c r="J98">
-        <f t="shared" ref="J98:J100" si="20">(K98/B98)*100</f>
+        <f>(K98/B98)*100</f>
         <v>8.1034626616604086</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="2">
         <v>4856</v>
       </c>
       <c r="L98">
-        <f t="shared" ref="L98:L100" si="21">(M98/B98)*100</f>
+        <f>(M98/B98)*100</f>
         <v>53.383395911556107</v>
       </c>
       <c r="M98">
         <v>31990</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="2">
         <v>36846</v>
       </c>
       <c r="O98">
@@ -8714,54 +8728,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
-      <c r="B99">
-        <f t="shared" si="15"/>
+      <c r="B99" s="2">
+        <f t="shared" si="2"/>
         <v>4326</v>
       </c>
-      <c r="C99">
-        <f t="shared" si="16"/>
+      <c r="C99" s="2">
+        <f>D99/B99*100</f>
         <v>10.309754969949145</v>
       </c>
-      <c r="D99">
-        <f t="shared" si="17"/>
+      <c r="D99" s="2">
+        <f t="shared" si="3"/>
         <v>446</v>
       </c>
       <c r="E99">
-        <f t="shared" si="18"/>
+        <f>(F99/B99)*100</f>
         <v>2.4271844660194173</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <v>105</v>
       </c>
       <c r="G99">
-        <f t="shared" si="19"/>
+        <f>(H99/B99)*100</f>
         <v>29.565418400369857</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="2">
         <v>1279</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="2">
         <v>1384</v>
       </c>
       <c r="J99">
-        <f t="shared" si="20"/>
+        <f>(K99/B99)*100</f>
         <v>7.8825705039297267</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="2">
         <v>341</v>
       </c>
       <c r="L99">
-        <f t="shared" si="21"/>
+        <f>(M99/B99)*100</f>
         <v>60.124826629680996</v>
       </c>
       <c r="M99">
         <v>2601</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="2">
         <v>2942</v>
       </c>
       <c r="O99">
@@ -8795,54 +8809,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>118</v>
       </c>
-      <c r="B100">
-        <f t="shared" si="15"/>
+      <c r="B100" s="2">
+        <f t="shared" si="2"/>
         <v>6768</v>
       </c>
-      <c r="C100">
-        <f t="shared" si="16"/>
+      <c r="C100" s="2">
+        <f>D100/B100*100</f>
         <v>10.99290780141844</v>
       </c>
-      <c r="D100">
-        <f t="shared" si="17"/>
+      <c r="D100" s="2">
+        <f t="shared" si="3"/>
         <v>744</v>
       </c>
       <c r="E100">
-        <f t="shared" si="18"/>
+        <f>(F100/B100)*100</f>
         <v>3.0289598108747042</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <v>205</v>
       </c>
       <c r="G100">
-        <f t="shared" si="19"/>
+        <f>(H100/B100)*100</f>
         <v>31.087470449172578</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2">
         <v>2104</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="2">
         <v>2309</v>
       </c>
       <c r="J100">
-        <f t="shared" si="20"/>
+        <f>(K100/B100)*100</f>
         <v>7.9639479905437351</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="2">
         <v>539</v>
       </c>
       <c r="L100">
-        <f t="shared" si="21"/>
+        <f>(M100/B100)*100</f>
         <v>57.919621749408975</v>
       </c>
       <c r="M100">
         <v>3920</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="2">
         <v>4459</v>
       </c>
       <c r="O100">
@@ -8890,14 +8904,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8917,7 +8931,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -8938,7 +8952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -8959,7 +8973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8980,7 +8994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -9001,7 +9015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -9022,7 +9036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -9043,7 +9057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -9064,7 +9078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -9085,7 +9099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -9106,7 +9120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -9127,7 +9141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -9148,7 +9162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -9169,7 +9183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -9190,7 +9204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -9211,7 +9225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -9232,7 +9246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -9253,7 +9267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -9274,7 +9288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -9295,7 +9309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -9316,7 +9330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -9337,7 +9351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -9358,7 +9372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -9379,7 +9393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -9400,7 +9414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -9421,7 +9435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -9442,7 +9456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -9463,7 +9477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -9484,7 +9498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -9505,7 +9519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -9526,7 +9540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -9547,7 +9561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -9568,7 +9582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -9589,7 +9603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -9610,7 +9624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -9631,7 +9645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -9652,7 +9666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -9673,7 +9687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -9694,7 +9708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -9715,7 +9729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -9736,7 +9750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -9757,7 +9771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -9778,7 +9792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -9799,7 +9813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -9820,7 +9834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -9841,7 +9855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -9862,7 +9876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -9883,7 +9897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -9904,7 +9918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -9925,7 +9939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -9946,7 +9960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -9967,7 +9981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -9988,7 +10002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -10009,7 +10023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -10030,7 +10044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -10051,7 +10065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -10072,7 +10086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -10093,7 +10107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -10114,7 +10128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -10135,7 +10149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -10156,7 +10170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -10177,7 +10191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -10198,7 +10212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -10219,7 +10233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -10240,7 +10254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -10261,7 +10275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -10282,7 +10296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -10303,7 +10317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -10324,7 +10338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -10345,7 +10359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -10366,7 +10380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -10387,7 +10401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -10408,7 +10422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -10429,7 +10443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -10450,7 +10464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -10471,7 +10485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -10492,7 +10506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -10513,7 +10527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -10534,7 +10548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -10555,7 +10569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -10576,7 +10590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -10597,7 +10611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -10618,7 +10632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -10639,7 +10653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -10660,7 +10674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -10681,7 +10695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -10702,7 +10716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -10723,7 +10737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -10744,7 +10758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -10765,7 +10779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -10786,7 +10800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -10807,7 +10821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -10828,7 +10842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -10849,7 +10863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -10870,7 +10884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -10891,7 +10905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -10912,7 +10926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -10933,7 +10947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -10954,7 +10968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -10975,7 +10989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>118</v>
       </c>
@@ -11009,14 +11023,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
-    <col min="3" max="9" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11045,7 +11059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -11076,7 +11090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -11107,7 +11121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -11138,7 +11152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -11169,7 +11183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -11200,7 +11214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -11231,7 +11245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -11262,7 +11276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -11293,7 +11307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -11324,7 +11338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -11355,7 +11369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -11386,7 +11400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -11417,7 +11431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -11448,7 +11462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -11479,7 +11493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -11510,7 +11524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -11541,7 +11555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -11572,7 +11586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -11603,7 +11617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -11634,7 +11648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -11665,7 +11679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -11696,7 +11710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -11727,7 +11741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -11758,7 +11772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -11789,7 +11803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -11820,7 +11834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -11851,7 +11865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -11882,7 +11896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -11913,7 +11927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -11944,7 +11958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -11975,7 +11989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -12006,7 +12020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -12037,7 +12051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -12068,7 +12082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -12099,7 +12113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -12130,7 +12144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -12161,7 +12175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -12192,7 +12206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -12223,7 +12237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -12254,7 +12268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -12285,7 +12299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -12316,7 +12330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -12347,7 +12361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -12378,7 +12392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -12409,7 +12423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -12440,7 +12454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -12471,7 +12485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -12502,7 +12516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -12533,7 +12547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -12564,7 +12578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -12595,7 +12609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -12626,7 +12640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -12657,7 +12671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -12688,7 +12702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -12719,7 +12733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -12750,7 +12764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -12781,7 +12795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -12812,7 +12826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -12843,7 +12857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -12874,7 +12888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -12905,7 +12919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -12936,7 +12950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -12967,7 +12981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -12998,7 +13012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -13029,7 +13043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -13060,7 +13074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -13091,7 +13105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -13122,7 +13136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -13153,7 +13167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -13184,7 +13198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -13215,7 +13229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -13246,7 +13260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -13277,7 +13291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -13308,7 +13322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -13339,7 +13353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -13370,7 +13384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -13401,7 +13415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -13432,7 +13446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -13463,7 +13477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -13494,7 +13508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -13525,7 +13539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -13556,7 +13570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -13587,7 +13601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -13618,7 +13632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -13649,7 +13663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -13680,7 +13694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -13711,7 +13725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -13742,7 +13756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -13773,7 +13787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -13804,7 +13818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -13835,7 +13849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -13866,7 +13880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -13897,7 +13911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -13928,7 +13942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -13959,7 +13973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -13990,7 +14004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -14021,12 +14035,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>116</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" ref="B98:B129" si="5">C98/D98*100</f>
+        <f t="shared" ref="B98:B100" si="5">C98/D98*100</f>
         <v>6.2394384505394518</v>
       </c>
       <c r="C98">
@@ -14052,7 +14066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -14083,7 +14097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>118</v>
       </c>
@@ -14126,14 +14140,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="20.77734375" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14159,7 +14173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -14187,7 +14201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -14215,7 +14229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -14243,7 +14257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -14271,7 +14285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -14299,7 +14313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -14327,7 +14341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -14355,7 +14369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -14383,7 +14397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14411,7 +14425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -14439,7 +14453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -14467,7 +14481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -14495,7 +14509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -14523,7 +14537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -14551,7 +14565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -14579,7 +14593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -14607,7 +14621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -14635,7 +14649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -14663,7 +14677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -14691,7 +14705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -14719,7 +14733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -14747,7 +14761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -14775,7 +14789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -14803,7 +14817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -14831,7 +14845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -14859,7 +14873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -14887,7 +14901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -14915,7 +14929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -14943,7 +14957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -14971,7 +14985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -14999,7 +15013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -15027,7 +15041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -15055,7 +15069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -15083,7 +15097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -15111,7 +15125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -15139,7 +15153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -15167,7 +15181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -15195,7 +15209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -15223,7 +15237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -15251,7 +15265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -15279,7 +15293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -15307,7 +15321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -15335,7 +15349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -15363,7 +15377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -15391,7 +15405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -15419,7 +15433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -15447,7 +15461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -15475,7 +15489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -15503,7 +15517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -15531,7 +15545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -15559,7 +15573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -15587,7 +15601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -15615,7 +15629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -15643,7 +15657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -15671,7 +15685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -15699,7 +15713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -15727,7 +15741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -15755,7 +15769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -15783,7 +15797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -15811,7 +15825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -15839,7 +15853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -15867,7 +15881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -15895,7 +15909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -15923,7 +15937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -15951,7 +15965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -15979,7 +15993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -16007,7 +16021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -16035,7 +16049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -16063,7 +16077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -16091,7 +16105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -16119,7 +16133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -16147,7 +16161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -16175,7 +16189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -16203,7 +16217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -16231,7 +16245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -16259,7 +16273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -16287,7 +16301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -16315,7 +16329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -16343,7 +16357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -16371,7 +16385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -16399,7 +16413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -16427,7 +16441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -16455,7 +16469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -16483,7 +16497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -16511,7 +16525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -16539,7 +16553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -16567,7 +16581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -16595,7 +16609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -16623,7 +16637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -16651,7 +16665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -16679,7 +16693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -16707,7 +16721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -16735,7 +16749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -16763,7 +16777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -16791,7 +16805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -16819,7 +16833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -16847,7 +16861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -16875,7 +16889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -16903,7 +16917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>118</v>
       </c>
